--- a/Project2_Maroofi_Irwin/data_staging/inflation_excel_series/CPI_Less_Food_And_Energy_CPILFESL.xlsx
+++ b/Project2_Maroofi_Irwin/data_staging/inflation_excel_series/CPI_Less_Food_And_Energy_CPILFESL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3100" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="1501">
   <si>
     <t>realtime_start</t>
   </si>
@@ -28,7 +28,7 @@
     <t>value</t>
   </si>
   <si>
-    <t>2021-08-03</t>
+    <t>2022-09-13</t>
   </si>
   <si>
     <t>1957-01-01</t>
@@ -2353,6 +2353,45 @@
     <t>2021-06-01</t>
   </si>
   <si>
+    <t>2021-07-01</t>
+  </si>
+  <si>
+    <t>2021-08-01</t>
+  </si>
+  <si>
+    <t>2021-09-01</t>
+  </si>
+  <si>
+    <t>2021-10-01</t>
+  </si>
+  <si>
+    <t>2021-11-01</t>
+  </si>
+  <si>
+    <t>2021-12-01</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>2022-02-01</t>
+  </si>
+  <si>
+    <t>2022-03-01</t>
+  </si>
+  <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
+    <t>2022-05-01</t>
+  </si>
+  <si>
+    <t>2022-06-01</t>
+  </si>
+  <si>
+    <t>2022-07-01</t>
+  </si>
+  <si>
     <t>28.5</t>
   </si>
   <si>
@@ -4279,166 +4318,205 @@
     <t>249.920</t>
   </si>
   <si>
-    <t>250.462</t>
-  </si>
-  <si>
-    <t>250.903</t>
-  </si>
-  <si>
-    <t>250.836</t>
-  </si>
-  <si>
-    <t>251.252</t>
-  </si>
-  <si>
-    <t>251.488</t>
-  </si>
-  <si>
-    <t>251.822</t>
-  </si>
-  <si>
-    <t>252.047</t>
-  </si>
-  <si>
-    <t>252.597</t>
-  </si>
-  <si>
-    <t>253.039</t>
-  </si>
-  <si>
-    <t>253.535</t>
-  </si>
-  <si>
-    <t>253.744</t>
-  </si>
-  <si>
-    <t>254.308</t>
-  </si>
-  <si>
-    <t>255.007</t>
-  </si>
-  <si>
-    <t>255.472</t>
-  </si>
-  <si>
-    <t>256.117</t>
-  </si>
-  <si>
-    <t>256.656</t>
-  </si>
-  <si>
-    <t>257.157</t>
-  </si>
-  <si>
-    <t>257.534</t>
-  </si>
-  <si>
-    <t>257.930</t>
-  </si>
-  <si>
-    <t>258.080</t>
-  </si>
-  <si>
-    <t>258.534</t>
-  </si>
-  <si>
-    <t>258.989</t>
-  </si>
-  <si>
-    <t>259.415</t>
-  </si>
-  <si>
-    <t>259.873</t>
-  </si>
-  <si>
-    <t>260.419</t>
-  </si>
-  <si>
-    <t>260.722</t>
-  </si>
-  <si>
-    <t>261.339</t>
-  </si>
-  <si>
-    <t>262.050</t>
-  </si>
-  <si>
-    <t>262.384</t>
-  </si>
-  <si>
-    <t>263.117</t>
-  </si>
-  <si>
-    <t>263.616</t>
-  </si>
-  <si>
-    <t>264.151</t>
-  </si>
-  <si>
-    <t>264.603</t>
-  </si>
-  <si>
-    <t>265.026</t>
-  </si>
-  <si>
-    <t>265.427</t>
-  </si>
-  <si>
-    <t>265.651</t>
-  </si>
-  <si>
-    <t>266.306</t>
-  </si>
-  <si>
-    <t>266.876</t>
-  </si>
-  <si>
-    <t>266.820</t>
-  </si>
-  <si>
-    <t>265.836</t>
-  </si>
-  <si>
-    <t>265.637</t>
-  </si>
-  <si>
-    <t>266.282</t>
-  </si>
-  <si>
-    <t>267.722</t>
-  </si>
-  <si>
-    <t>268.654</t>
-  </si>
-  <si>
-    <t>269.155</t>
-  </si>
-  <si>
-    <t>269.350</t>
-  </si>
-  <si>
-    <t>269.819</t>
-  </si>
-  <si>
-    <t>269.940</t>
-  </si>
-  <si>
-    <t>270.025</t>
-  </si>
-  <si>
-    <t>270.299</t>
-  </si>
-  <si>
-    <t>271.214</t>
-  </si>
-  <si>
-    <t>273.700</t>
-  </si>
-  <si>
-    <t>275.718</t>
-  </si>
-  <si>
-    <t>278.140</t>
+    <t>250.467</t>
+  </si>
+  <si>
+    <t>250.998</t>
+  </si>
+  <si>
+    <t>250.944</t>
+  </si>
+  <si>
+    <t>251.227</t>
+  </si>
+  <si>
+    <t>251.430</t>
+  </si>
+  <si>
+    <t>251.746</t>
+  </si>
+  <si>
+    <t>251.985</t>
+  </si>
+  <si>
+    <t>252.535</t>
+  </si>
+  <si>
+    <t>252.812</t>
+  </si>
+  <si>
+    <t>253.526</t>
+  </si>
+  <si>
+    <t>253.816</t>
+  </si>
+  <si>
+    <t>254.344</t>
+  </si>
+  <si>
+    <t>255.072</t>
+  </si>
+  <si>
+    <t>255.568</t>
+  </si>
+  <si>
+    <t>256.128</t>
+  </si>
+  <si>
+    <t>256.603</t>
+  </si>
+  <si>
+    <t>257.151</t>
+  </si>
+  <si>
+    <t>257.449</t>
+  </si>
+  <si>
+    <t>257.848</t>
+  </si>
+  <si>
+    <t>258.028</t>
+  </si>
+  <si>
+    <t>258.505</t>
+  </si>
+  <si>
+    <t>258.997</t>
+  </si>
+  <si>
+    <t>259.455</t>
+  </si>
+  <si>
+    <t>259.934</t>
+  </si>
+  <si>
+    <t>260.534</t>
+  </si>
+  <si>
+    <t>260.885</t>
+  </si>
+  <si>
+    <t>261.382</t>
+  </si>
+  <si>
+    <t>261.958</t>
+  </si>
+  <si>
+    <t>262.321</t>
+  </si>
+  <si>
+    <t>262.945</t>
+  </si>
+  <si>
+    <t>263.491</t>
+  </si>
+  <si>
+    <t>264.135</t>
+  </si>
+  <si>
+    <t>264.588</t>
+  </si>
+  <si>
+    <t>265.019</t>
+  </si>
+  <si>
+    <t>265.461</t>
+  </si>
+  <si>
+    <t>265.742</t>
+  </si>
+  <si>
+    <t>266.418</t>
+  </si>
+  <si>
+    <t>267.083</t>
+  </si>
+  <si>
+    <t>266.916</t>
+  </si>
+  <si>
+    <t>265.771</t>
+  </si>
+  <si>
+    <t>265.606</t>
+  </si>
+  <si>
+    <t>266.088</t>
+  </si>
+  <si>
+    <t>267.552</t>
+  </si>
+  <si>
+    <t>268.662</t>
+  </si>
+  <si>
+    <t>269.152</t>
+  </si>
+  <si>
+    <t>269.332</t>
+  </si>
+  <si>
+    <t>269.816</t>
+  </si>
+  <si>
+    <t>269.984</t>
+  </si>
+  <si>
+    <t>270.114</t>
+  </si>
+  <si>
+    <t>270.522</t>
+  </si>
+  <si>
+    <t>271.347</t>
+  </si>
+  <si>
+    <t>273.669</t>
+  </si>
+  <si>
+    <t>275.715</t>
+  </si>
+  <si>
+    <t>277.922</t>
+  </si>
+  <si>
+    <t>278.794</t>
+  </si>
+  <si>
+    <t>279.306</t>
+  </si>
+  <si>
+    <t>280.017</t>
+  </si>
+  <si>
+    <t>281.705</t>
+  </si>
+  <si>
+    <t>283.179</t>
+  </si>
+  <si>
+    <t>284.770</t>
+  </si>
+  <si>
+    <t>286.431</t>
+  </si>
+  <si>
+    <t>287.878</t>
+  </si>
+  <si>
+    <t>288.811</t>
+  </si>
+  <si>
+    <t>290.455</t>
+  </si>
+  <si>
+    <t>292.289</t>
+  </si>
+  <si>
+    <t>294.354</t>
+  </si>
+  <si>
+    <t>295.275</t>
   </si>
 </sst>
 </file>
@@ -4796,7 +4874,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E775"/>
+  <dimension ref="A1:E788"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4833,7 +4911,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4850,7 +4928,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4867,7 +4945,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4884,7 +4962,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4901,7 +4979,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4918,7 +4996,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4935,7 +5013,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4952,7 +5030,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4969,7 +5047,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4986,7 +5064,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>786</v>
+        <v>799</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5003,7 +5081,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5020,7 +5098,7 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5037,7 +5115,7 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5054,7 +5132,7 @@
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5071,7 +5149,7 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5088,7 +5166,7 @@
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5105,7 +5183,7 @@
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5122,7 +5200,7 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5139,7 +5217,7 @@
         <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5156,7 +5234,7 @@
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5173,7 +5251,7 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5190,7 +5268,7 @@
         <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5207,7 +5285,7 @@
         <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>792</v>
+        <v>805</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5224,7 +5302,7 @@
         <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5241,7 +5319,7 @@
         <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5258,7 +5336,7 @@
         <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5275,7 +5353,7 @@
         <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5292,7 +5370,7 @@
         <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5309,7 +5387,7 @@
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>795</v>
+        <v>808</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5326,7 +5404,7 @@
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5343,7 +5421,7 @@
         <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -5360,7 +5438,7 @@
         <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -5377,7 +5455,7 @@
         <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -5394,7 +5472,7 @@
         <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>798</v>
+        <v>811</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -5411,7 +5489,7 @@
         <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>798</v>
+        <v>811</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -5428,7 +5506,7 @@
         <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -5445,7 +5523,7 @@
         <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -5462,7 +5540,7 @@
         <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -5479,7 +5557,7 @@
         <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -5496,7 +5574,7 @@
         <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -5513,7 +5591,7 @@
         <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -5530,7 +5608,7 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>801</v>
+        <v>814</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -5547,7 +5625,7 @@
         <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -5564,7 +5642,7 @@
         <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -5581,7 +5659,7 @@
         <v>49</v>
       </c>
       <c r="E46" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -5598,7 +5676,7 @@
         <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -5615,7 +5693,7 @@
         <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -5632,7 +5710,7 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>801</v>
+        <v>814</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -5649,7 +5727,7 @@
         <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -5666,7 +5744,7 @@
         <v>54</v>
       </c>
       <c r="E51" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -5683,7 +5761,7 @@
         <v>55</v>
       </c>
       <c r="E52" t="s">
-        <v>803</v>
+        <v>816</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -5700,7 +5778,7 @@
         <v>56</v>
       </c>
       <c r="E53" t="s">
-        <v>803</v>
+        <v>816</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -5717,7 +5795,7 @@
         <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>803</v>
+        <v>816</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -5734,7 +5812,7 @@
         <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -5751,7 +5829,7 @@
         <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -5768,7 +5846,7 @@
         <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -5785,7 +5863,7 @@
         <v>61</v>
       </c>
       <c r="E58" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -5802,7 +5880,7 @@
         <v>62</v>
       </c>
       <c r="E59" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -5819,7 +5897,7 @@
         <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -5836,7 +5914,7 @@
         <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -5853,7 +5931,7 @@
         <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -5870,7 +5948,7 @@
         <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -5887,7 +5965,7 @@
         <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -5904,7 +5982,7 @@
         <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -5921,7 +5999,7 @@
         <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -5938,7 +6016,7 @@
         <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -5955,7 +6033,7 @@
         <v>71</v>
       </c>
       <c r="E68" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -5972,7 +6050,7 @@
         <v>72</v>
       </c>
       <c r="E69" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -5989,7 +6067,7 @@
         <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -6006,7 +6084,7 @@
         <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -6023,7 +6101,7 @@
         <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -6040,7 +6118,7 @@
         <v>76</v>
       </c>
       <c r="E73" t="s">
-        <v>810</v>
+        <v>823</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -6057,7 +6135,7 @@
         <v>77</v>
       </c>
       <c r="E74" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -6074,7 +6152,7 @@
         <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>810</v>
+        <v>823</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -6091,7 +6169,7 @@
         <v>79</v>
       </c>
       <c r="E76" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -6108,7 +6186,7 @@
         <v>80</v>
       </c>
       <c r="E77" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -6125,7 +6203,7 @@
         <v>81</v>
       </c>
       <c r="E78" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -6142,7 +6220,7 @@
         <v>82</v>
       </c>
       <c r="E79" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -6159,7 +6237,7 @@
         <v>83</v>
       </c>
       <c r="E80" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -6176,7 +6254,7 @@
         <v>84</v>
       </c>
       <c r="E81" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -6193,7 +6271,7 @@
         <v>85</v>
       </c>
       <c r="E82" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -6210,7 +6288,7 @@
         <v>86</v>
       </c>
       <c r="E83" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -6227,7 +6305,7 @@
         <v>87</v>
       </c>
       <c r="E84" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -6244,7 +6322,7 @@
         <v>88</v>
       </c>
       <c r="E85" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -6261,7 +6339,7 @@
         <v>89</v>
       </c>
       <c r="E86" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -6278,7 +6356,7 @@
         <v>90</v>
       </c>
       <c r="E87" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -6295,7 +6373,7 @@
         <v>91</v>
       </c>
       <c r="E88" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -6312,7 +6390,7 @@
         <v>92</v>
       </c>
       <c r="E89" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -6329,7 +6407,7 @@
         <v>93</v>
       </c>
       <c r="E90" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -6346,7 +6424,7 @@
         <v>94</v>
       </c>
       <c r="E91" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -6363,7 +6441,7 @@
         <v>95</v>
       </c>
       <c r="E92" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -6380,7 +6458,7 @@
         <v>96</v>
       </c>
       <c r="E93" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -6397,7 +6475,7 @@
         <v>97</v>
       </c>
       <c r="E94" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -6414,7 +6492,7 @@
         <v>98</v>
       </c>
       <c r="E95" t="s">
-        <v>818</v>
+        <v>831</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -6431,7 +6509,7 @@
         <v>99</v>
       </c>
       <c r="E96" t="s">
-        <v>819</v>
+        <v>832</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -6448,7 +6526,7 @@
         <v>100</v>
       </c>
       <c r="E97" t="s">
-        <v>819</v>
+        <v>832</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -6465,7 +6543,7 @@
         <v>101</v>
       </c>
       <c r="E98" t="s">
-        <v>820</v>
+        <v>833</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -6482,7 +6560,7 @@
         <v>102</v>
       </c>
       <c r="E99" t="s">
-        <v>820</v>
+        <v>833</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -6499,7 +6577,7 @@
         <v>103</v>
       </c>
       <c r="E100" t="s">
-        <v>820</v>
+        <v>833</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -6516,7 +6594,7 @@
         <v>104</v>
       </c>
       <c r="E101" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -6533,7 +6611,7 @@
         <v>105</v>
       </c>
       <c r="E102" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -6550,7 +6628,7 @@
         <v>106</v>
       </c>
       <c r="E103" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -6567,7 +6645,7 @@
         <v>107</v>
       </c>
       <c r="E104" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -6584,7 +6662,7 @@
         <v>108</v>
       </c>
       <c r="E105" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -6601,7 +6679,7 @@
         <v>109</v>
       </c>
       <c r="E106" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -6618,7 +6696,7 @@
         <v>110</v>
       </c>
       <c r="E107" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -6635,7 +6713,7 @@
         <v>111</v>
       </c>
       <c r="E108" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -6652,7 +6730,7 @@
         <v>112</v>
       </c>
       <c r="E109" t="s">
-        <v>824</v>
+        <v>837</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -6669,7 +6747,7 @@
         <v>113</v>
       </c>
       <c r="E110" t="s">
-        <v>824</v>
+        <v>837</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -6686,7 +6764,7 @@
         <v>114</v>
       </c>
       <c r="E111" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -6703,7 +6781,7 @@
         <v>115</v>
       </c>
       <c r="E112" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -6720,7 +6798,7 @@
         <v>116</v>
       </c>
       <c r="E113" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -6737,7 +6815,7 @@
         <v>117</v>
       </c>
       <c r="E114" t="s">
-        <v>827</v>
+        <v>840</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -6754,7 +6832,7 @@
         <v>118</v>
       </c>
       <c r="E115" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -6771,7 +6849,7 @@
         <v>119</v>
       </c>
       <c r="E116" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -6788,7 +6866,7 @@
         <v>120</v>
       </c>
       <c r="E117" t="s">
-        <v>830</v>
+        <v>843</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -6805,7 +6883,7 @@
         <v>121</v>
       </c>
       <c r="E118" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -6822,7 +6900,7 @@
         <v>122</v>
       </c>
       <c r="E119" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -6839,7 +6917,7 @@
         <v>123</v>
       </c>
       <c r="E120" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -6856,7 +6934,7 @@
         <v>124</v>
       </c>
       <c r="E121" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -6873,7 +6951,7 @@
         <v>125</v>
       </c>
       <c r="E122" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -6890,7 +6968,7 @@
         <v>126</v>
       </c>
       <c r="E123" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -6907,7 +6985,7 @@
         <v>127</v>
       </c>
       <c r="E124" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -6924,7 +7002,7 @@
         <v>128</v>
       </c>
       <c r="E125" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -6941,7 +7019,7 @@
         <v>129</v>
       </c>
       <c r="E126" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -6958,7 +7036,7 @@
         <v>130</v>
       </c>
       <c r="E127" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -6975,7 +7053,7 @@
         <v>131</v>
       </c>
       <c r="E128" t="s">
-        <v>839</v>
+        <v>852</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -6992,7 +7070,7 @@
         <v>132</v>
       </c>
       <c r="E129" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -7009,7 +7087,7 @@
         <v>133</v>
       </c>
       <c r="E130" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -7026,7 +7104,7 @@
         <v>134</v>
       </c>
       <c r="E131" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -7043,7 +7121,7 @@
         <v>135</v>
       </c>
       <c r="E132" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -7060,7 +7138,7 @@
         <v>136</v>
       </c>
       <c r="E133" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -7077,7 +7155,7 @@
         <v>137</v>
       </c>
       <c r="E134" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -7094,7 +7172,7 @@
         <v>138</v>
       </c>
       <c r="E135" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -7111,7 +7189,7 @@
         <v>139</v>
       </c>
       <c r="E136" t="s">
-        <v>847</v>
+        <v>860</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -7128,7 +7206,7 @@
         <v>140</v>
       </c>
       <c r="E137" t="s">
-        <v>848</v>
+        <v>861</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -7145,7 +7223,7 @@
         <v>141</v>
       </c>
       <c r="E138" t="s">
-        <v>849</v>
+        <v>862</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -7162,7 +7240,7 @@
         <v>142</v>
       </c>
       <c r="E139" t="s">
-        <v>850</v>
+        <v>863</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -7179,7 +7257,7 @@
         <v>143</v>
       </c>
       <c r="E140" t="s">
-        <v>851</v>
+        <v>864</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -7196,7 +7274,7 @@
         <v>144</v>
       </c>
       <c r="E141" t="s">
-        <v>852</v>
+        <v>865</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -7213,7 +7291,7 @@
         <v>145</v>
       </c>
       <c r="E142" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -7230,7 +7308,7 @@
         <v>146</v>
       </c>
       <c r="E143" t="s">
-        <v>854</v>
+        <v>867</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -7247,7 +7325,7 @@
         <v>147</v>
       </c>
       <c r="E144" t="s">
-        <v>855</v>
+        <v>868</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -7264,7 +7342,7 @@
         <v>148</v>
       </c>
       <c r="E145" t="s">
-        <v>856</v>
+        <v>869</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -7281,7 +7359,7 @@
         <v>149</v>
       </c>
       <c r="E146" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -7298,7 +7376,7 @@
         <v>150</v>
       </c>
       <c r="E147" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -7315,7 +7393,7 @@
         <v>151</v>
       </c>
       <c r="E148" t="s">
-        <v>859</v>
+        <v>872</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -7332,7 +7410,7 @@
         <v>152</v>
       </c>
       <c r="E149" t="s">
-        <v>860</v>
+        <v>873</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -7349,7 +7427,7 @@
         <v>153</v>
       </c>
       <c r="E150" t="s">
-        <v>860</v>
+        <v>873</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -7366,7 +7444,7 @@
         <v>154</v>
       </c>
       <c r="E151" t="s">
-        <v>861</v>
+        <v>874</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -7383,7 +7461,7 @@
         <v>155</v>
       </c>
       <c r="E152" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -7400,7 +7478,7 @@
         <v>156</v>
       </c>
       <c r="E153" t="s">
-        <v>863</v>
+        <v>876</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -7417,7 +7495,7 @@
         <v>157</v>
       </c>
       <c r="E154" t="s">
-        <v>864</v>
+        <v>877</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -7434,7 +7512,7 @@
         <v>158</v>
       </c>
       <c r="E155" t="s">
-        <v>865</v>
+        <v>878</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -7451,7 +7529,7 @@
         <v>159</v>
       </c>
       <c r="E156" t="s">
-        <v>866</v>
+        <v>879</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -7468,7 +7546,7 @@
         <v>160</v>
       </c>
       <c r="E157" t="s">
-        <v>867</v>
+        <v>880</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -7485,7 +7563,7 @@
         <v>161</v>
       </c>
       <c r="E158" t="s">
-        <v>868</v>
+        <v>881</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -7502,7 +7580,7 @@
         <v>162</v>
       </c>
       <c r="E159" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -7519,7 +7597,7 @@
         <v>163</v>
       </c>
       <c r="E160" t="s">
-        <v>870</v>
+        <v>883</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -7536,7 +7614,7 @@
         <v>164</v>
       </c>
       <c r="E161" t="s">
-        <v>871</v>
+        <v>884</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -7553,7 +7631,7 @@
         <v>165</v>
       </c>
       <c r="E162" t="s">
-        <v>872</v>
+        <v>885</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -7570,7 +7648,7 @@
         <v>166</v>
       </c>
       <c r="E163" t="s">
-        <v>873</v>
+        <v>886</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -7587,7 +7665,7 @@
         <v>167</v>
       </c>
       <c r="E164" t="s">
-        <v>874</v>
+        <v>887</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -7604,7 +7682,7 @@
         <v>168</v>
       </c>
       <c r="E165" t="s">
-        <v>875</v>
+        <v>888</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -7621,7 +7699,7 @@
         <v>169</v>
       </c>
       <c r="E166" t="s">
-        <v>876</v>
+        <v>889</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -7638,7 +7716,7 @@
         <v>170</v>
       </c>
       <c r="E167" t="s">
-        <v>877</v>
+        <v>890</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -7655,7 +7733,7 @@
         <v>171</v>
       </c>
       <c r="E168" t="s">
-        <v>878</v>
+        <v>891</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -7672,7 +7750,7 @@
         <v>172</v>
       </c>
       <c r="E169" t="s">
-        <v>879</v>
+        <v>892</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -7689,7 +7767,7 @@
         <v>173</v>
       </c>
       <c r="E170" t="s">
-        <v>880</v>
+        <v>893</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -7706,7 +7784,7 @@
         <v>174</v>
       </c>
       <c r="E171" t="s">
-        <v>881</v>
+        <v>894</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -7723,7 +7801,7 @@
         <v>175</v>
       </c>
       <c r="E172" t="s">
-        <v>881</v>
+        <v>894</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -7740,7 +7818,7 @@
         <v>176</v>
       </c>
       <c r="E173" t="s">
-        <v>882</v>
+        <v>895</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -7757,7 +7835,7 @@
         <v>177</v>
       </c>
       <c r="E174" t="s">
-        <v>883</v>
+        <v>896</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -7774,7 +7852,7 @@
         <v>178</v>
       </c>
       <c r="E175" t="s">
-        <v>884</v>
+        <v>897</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -7791,7 +7869,7 @@
         <v>179</v>
       </c>
       <c r="E176" t="s">
-        <v>885</v>
+        <v>898</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -7808,7 +7886,7 @@
         <v>180</v>
       </c>
       <c r="E177" t="s">
-        <v>886</v>
+        <v>899</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -7825,7 +7903,7 @@
         <v>181</v>
       </c>
       <c r="E178" t="s">
-        <v>886</v>
+        <v>899</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -7842,7 +7920,7 @@
         <v>182</v>
       </c>
       <c r="E179" t="s">
-        <v>887</v>
+        <v>900</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -7859,7 +7937,7 @@
         <v>183</v>
       </c>
       <c r="E180" t="s">
-        <v>888</v>
+        <v>901</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -7876,7 +7954,7 @@
         <v>184</v>
       </c>
       <c r="E181" t="s">
-        <v>889</v>
+        <v>902</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -7893,7 +7971,7 @@
         <v>185</v>
       </c>
       <c r="E182" t="s">
-        <v>890</v>
+        <v>903</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -7910,7 +7988,7 @@
         <v>186</v>
       </c>
       <c r="E183" t="s">
-        <v>891</v>
+        <v>904</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -7927,7 +8005,7 @@
         <v>187</v>
       </c>
       <c r="E184" t="s">
-        <v>891</v>
+        <v>904</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -7944,7 +8022,7 @@
         <v>188</v>
       </c>
       <c r="E185" t="s">
-        <v>892</v>
+        <v>905</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -7961,7 +8039,7 @@
         <v>189</v>
       </c>
       <c r="E186" t="s">
-        <v>893</v>
+        <v>906</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -7978,7 +8056,7 @@
         <v>190</v>
       </c>
       <c r="E187" t="s">
-        <v>894</v>
+        <v>907</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -7995,7 +8073,7 @@
         <v>191</v>
       </c>
       <c r="E188" t="s">
-        <v>895</v>
+        <v>908</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -8012,7 +8090,7 @@
         <v>192</v>
       </c>
       <c r="E189" t="s">
-        <v>896</v>
+        <v>909</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -8029,7 +8107,7 @@
         <v>193</v>
       </c>
       <c r="E190" t="s">
-        <v>896</v>
+        <v>909</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -8046,7 +8124,7 @@
         <v>194</v>
       </c>
       <c r="E191" t="s">
-        <v>897</v>
+        <v>910</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -8063,7 +8141,7 @@
         <v>195</v>
       </c>
       <c r="E192" t="s">
-        <v>897</v>
+        <v>910</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -8080,7 +8158,7 @@
         <v>196</v>
       </c>
       <c r="E193" t="s">
-        <v>898</v>
+        <v>911</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -8097,7 +8175,7 @@
         <v>197</v>
       </c>
       <c r="E194" t="s">
-        <v>898</v>
+        <v>911</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -8114,7 +8192,7 @@
         <v>198</v>
       </c>
       <c r="E195" t="s">
-        <v>899</v>
+        <v>912</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -8131,7 +8209,7 @@
         <v>199</v>
       </c>
       <c r="E196" t="s">
-        <v>900</v>
+        <v>913</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -8148,7 +8226,7 @@
         <v>200</v>
       </c>
       <c r="E197" t="s">
-        <v>901</v>
+        <v>914</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -8165,7 +8243,7 @@
         <v>201</v>
       </c>
       <c r="E198" t="s">
-        <v>902</v>
+        <v>915</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -8182,7 +8260,7 @@
         <v>202</v>
       </c>
       <c r="E199" t="s">
-        <v>903</v>
+        <v>916</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -8199,7 +8277,7 @@
         <v>203</v>
       </c>
       <c r="E200" t="s">
-        <v>904</v>
+        <v>917</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -8216,7 +8294,7 @@
         <v>204</v>
       </c>
       <c r="E201" t="s">
-        <v>905</v>
+        <v>918</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -8233,7 +8311,7 @@
         <v>205</v>
       </c>
       <c r="E202" t="s">
-        <v>906</v>
+        <v>919</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -8250,7 +8328,7 @@
         <v>206</v>
       </c>
       <c r="E203" t="s">
-        <v>907</v>
+        <v>920</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -8267,7 +8345,7 @@
         <v>207</v>
       </c>
       <c r="E204" t="s">
-        <v>908</v>
+        <v>921</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -8284,7 +8362,7 @@
         <v>208</v>
       </c>
       <c r="E205" t="s">
-        <v>909</v>
+        <v>922</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -8301,7 +8379,7 @@
         <v>209</v>
       </c>
       <c r="E206" t="s">
-        <v>910</v>
+        <v>923</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -8318,7 +8396,7 @@
         <v>210</v>
       </c>
       <c r="E207" t="s">
-        <v>911</v>
+        <v>924</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -8335,7 +8413,7 @@
         <v>211</v>
       </c>
       <c r="E208" t="s">
-        <v>912</v>
+        <v>925</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -8352,7 +8430,7 @@
         <v>212</v>
       </c>
       <c r="E209" t="s">
-        <v>913</v>
+        <v>926</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -8369,7 +8447,7 @@
         <v>213</v>
       </c>
       <c r="E210" t="s">
-        <v>914</v>
+        <v>927</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -8386,7 +8464,7 @@
         <v>214</v>
       </c>
       <c r="E211" t="s">
-        <v>915</v>
+        <v>928</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -8403,7 +8481,7 @@
         <v>215</v>
       </c>
       <c r="E212" t="s">
-        <v>916</v>
+        <v>929</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -8420,7 +8498,7 @@
         <v>216</v>
       </c>
       <c r="E213" t="s">
-        <v>917</v>
+        <v>930</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -8437,7 +8515,7 @@
         <v>217</v>
       </c>
       <c r="E214" t="s">
-        <v>918</v>
+        <v>931</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -8454,7 +8532,7 @@
         <v>218</v>
       </c>
       <c r="E215" t="s">
-        <v>919</v>
+        <v>932</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -8471,7 +8549,7 @@
         <v>219</v>
       </c>
       <c r="E216" t="s">
-        <v>920</v>
+        <v>933</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -8488,7 +8566,7 @@
         <v>220</v>
       </c>
       <c r="E217" t="s">
-        <v>921</v>
+        <v>934</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -8505,7 +8583,7 @@
         <v>221</v>
       </c>
       <c r="E218" t="s">
-        <v>922</v>
+        <v>935</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -8522,7 +8600,7 @@
         <v>222</v>
       </c>
       <c r="E219" t="s">
-        <v>923</v>
+        <v>936</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -8539,7 +8617,7 @@
         <v>223</v>
       </c>
       <c r="E220" t="s">
-        <v>924</v>
+        <v>937</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -8556,7 +8634,7 @@
         <v>224</v>
       </c>
       <c r="E221" t="s">
-        <v>925</v>
+        <v>938</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -8573,7 +8651,7 @@
         <v>225</v>
       </c>
       <c r="E222" t="s">
-        <v>926</v>
+        <v>939</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -8590,7 +8668,7 @@
         <v>226</v>
       </c>
       <c r="E223" t="s">
-        <v>927</v>
+        <v>940</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -8607,7 +8685,7 @@
         <v>227</v>
       </c>
       <c r="E224" t="s">
-        <v>928</v>
+        <v>941</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -8624,7 +8702,7 @@
         <v>228</v>
       </c>
       <c r="E225" t="s">
-        <v>929</v>
+        <v>942</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -8641,7 +8719,7 @@
         <v>229</v>
       </c>
       <c r="E226" t="s">
-        <v>930</v>
+        <v>943</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -8658,7 +8736,7 @@
         <v>230</v>
       </c>
       <c r="E227" t="s">
-        <v>931</v>
+        <v>944</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -8675,7 +8753,7 @@
         <v>231</v>
       </c>
       <c r="E228" t="s">
-        <v>932</v>
+        <v>945</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -8692,7 +8770,7 @@
         <v>232</v>
       </c>
       <c r="E229" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -8709,7 +8787,7 @@
         <v>233</v>
       </c>
       <c r="E230" t="s">
-        <v>934</v>
+        <v>947</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -8726,7 +8804,7 @@
         <v>234</v>
       </c>
       <c r="E231" t="s">
-        <v>935</v>
+        <v>948</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -8743,7 +8821,7 @@
         <v>235</v>
       </c>
       <c r="E232" t="s">
-        <v>936</v>
+        <v>949</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -8760,7 +8838,7 @@
         <v>236</v>
       </c>
       <c r="E233" t="s">
-        <v>937</v>
+        <v>950</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -8777,7 +8855,7 @@
         <v>237</v>
       </c>
       <c r="E234" t="s">
-        <v>938</v>
+        <v>951</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -8794,7 +8872,7 @@
         <v>238</v>
       </c>
       <c r="E235" t="s">
-        <v>939</v>
+        <v>952</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -8811,7 +8889,7 @@
         <v>239</v>
       </c>
       <c r="E236" t="s">
-        <v>940</v>
+        <v>953</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -8828,7 +8906,7 @@
         <v>240</v>
       </c>
       <c r="E237" t="s">
-        <v>941</v>
+        <v>954</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -8845,7 +8923,7 @@
         <v>241</v>
       </c>
       <c r="E238" t="s">
-        <v>942</v>
+        <v>955</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -8862,7 +8940,7 @@
         <v>242</v>
       </c>
       <c r="E239" t="s">
-        <v>943</v>
+        <v>956</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -8879,7 +8957,7 @@
         <v>243</v>
       </c>
       <c r="E240" t="s">
-        <v>944</v>
+        <v>957</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -8896,7 +8974,7 @@
         <v>244</v>
       </c>
       <c r="E241" t="s">
-        <v>945</v>
+        <v>958</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -8913,7 +8991,7 @@
         <v>245</v>
       </c>
       <c r="E242" t="s">
-        <v>946</v>
+        <v>959</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -8930,7 +9008,7 @@
         <v>246</v>
       </c>
       <c r="E243" t="s">
-        <v>947</v>
+        <v>960</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -8947,7 +9025,7 @@
         <v>247</v>
       </c>
       <c r="E244" t="s">
-        <v>948</v>
+        <v>961</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -8964,7 +9042,7 @@
         <v>248</v>
       </c>
       <c r="E245" t="s">
-        <v>949</v>
+        <v>962</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -8981,7 +9059,7 @@
         <v>249</v>
       </c>
       <c r="E246" t="s">
-        <v>950</v>
+        <v>963</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -8998,7 +9076,7 @@
         <v>250</v>
       </c>
       <c r="E247" t="s">
-        <v>951</v>
+        <v>964</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -9015,7 +9093,7 @@
         <v>251</v>
       </c>
       <c r="E248" t="s">
-        <v>952</v>
+        <v>965</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -9032,7 +9110,7 @@
         <v>252</v>
       </c>
       <c r="E249" t="s">
-        <v>953</v>
+        <v>966</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -9049,7 +9127,7 @@
         <v>253</v>
       </c>
       <c r="E250" t="s">
-        <v>954</v>
+        <v>967</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -9066,7 +9144,7 @@
         <v>254</v>
       </c>
       <c r="E251" t="s">
-        <v>955</v>
+        <v>968</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -9083,7 +9161,7 @@
         <v>255</v>
       </c>
       <c r="E252" t="s">
-        <v>956</v>
+        <v>969</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -9100,7 +9178,7 @@
         <v>256</v>
       </c>
       <c r="E253" t="s">
-        <v>957</v>
+        <v>970</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -9117,7 +9195,7 @@
         <v>257</v>
       </c>
       <c r="E254" t="s">
-        <v>958</v>
+        <v>971</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -9134,7 +9212,7 @@
         <v>258</v>
       </c>
       <c r="E255" t="s">
-        <v>959</v>
+        <v>972</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -9151,7 +9229,7 @@
         <v>259</v>
       </c>
       <c r="E256" t="s">
-        <v>960</v>
+        <v>973</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -9168,7 +9246,7 @@
         <v>260</v>
       </c>
       <c r="E257" t="s">
-        <v>961</v>
+        <v>974</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -9185,7 +9263,7 @@
         <v>261</v>
       </c>
       <c r="E258" t="s">
-        <v>962</v>
+        <v>975</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -9202,7 +9280,7 @@
         <v>262</v>
       </c>
       <c r="E259" t="s">
-        <v>963</v>
+        <v>976</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -9219,7 +9297,7 @@
         <v>263</v>
       </c>
       <c r="E260" t="s">
-        <v>964</v>
+        <v>977</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -9236,7 +9314,7 @@
         <v>264</v>
       </c>
       <c r="E261" t="s">
-        <v>965</v>
+        <v>978</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -9253,7 +9331,7 @@
         <v>265</v>
       </c>
       <c r="E262" t="s">
-        <v>966</v>
+        <v>979</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -9270,7 +9348,7 @@
         <v>266</v>
       </c>
       <c r="E263" t="s">
-        <v>967</v>
+        <v>980</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -9287,7 +9365,7 @@
         <v>267</v>
       </c>
       <c r="E264" t="s">
-        <v>968</v>
+        <v>981</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -9304,7 +9382,7 @@
         <v>268</v>
       </c>
       <c r="E265" t="s">
-        <v>969</v>
+        <v>982</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -9321,7 +9399,7 @@
         <v>269</v>
       </c>
       <c r="E266" t="s">
-        <v>970</v>
+        <v>983</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -9338,7 +9416,7 @@
         <v>270</v>
       </c>
       <c r="E267" t="s">
-        <v>971</v>
+        <v>984</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -9355,7 +9433,7 @@
         <v>271</v>
       </c>
       <c r="E268" t="s">
-        <v>972</v>
+        <v>985</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -9372,7 +9450,7 @@
         <v>272</v>
       </c>
       <c r="E269" t="s">
-        <v>973</v>
+        <v>986</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -9389,7 +9467,7 @@
         <v>273</v>
       </c>
       <c r="E270" t="s">
-        <v>974</v>
+        <v>987</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -9406,7 +9484,7 @@
         <v>274</v>
       </c>
       <c r="E271" t="s">
-        <v>975</v>
+        <v>988</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -9423,7 +9501,7 @@
         <v>275</v>
       </c>
       <c r="E272" t="s">
-        <v>976</v>
+        <v>989</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -9440,7 +9518,7 @@
         <v>276</v>
       </c>
       <c r="E273" t="s">
-        <v>977</v>
+        <v>990</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -9457,7 +9535,7 @@
         <v>277</v>
       </c>
       <c r="E274" t="s">
-        <v>978</v>
+        <v>991</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -9474,7 +9552,7 @@
         <v>278</v>
       </c>
       <c r="E275" t="s">
-        <v>979</v>
+        <v>992</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -9491,7 +9569,7 @@
         <v>279</v>
       </c>
       <c r="E276" t="s">
-        <v>980</v>
+        <v>993</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -9508,7 +9586,7 @@
         <v>280</v>
       </c>
       <c r="E277" t="s">
-        <v>981</v>
+        <v>994</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -9525,7 +9603,7 @@
         <v>281</v>
       </c>
       <c r="E278" t="s">
-        <v>982</v>
+        <v>995</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -9542,7 +9620,7 @@
         <v>282</v>
       </c>
       <c r="E279" t="s">
-        <v>983</v>
+        <v>996</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -9559,7 +9637,7 @@
         <v>283</v>
       </c>
       <c r="E280" t="s">
-        <v>984</v>
+        <v>997</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -9576,7 +9654,7 @@
         <v>284</v>
       </c>
       <c r="E281" t="s">
-        <v>985</v>
+        <v>998</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -9593,7 +9671,7 @@
         <v>285</v>
       </c>
       <c r="E282" t="s">
-        <v>986</v>
+        <v>999</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -9610,7 +9688,7 @@
         <v>286</v>
       </c>
       <c r="E283" t="s">
-        <v>987</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -9627,7 +9705,7 @@
         <v>287</v>
       </c>
       <c r="E284" t="s">
-        <v>988</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -9644,7 +9722,7 @@
         <v>288</v>
       </c>
       <c r="E285" t="s">
-        <v>989</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -9661,7 +9739,7 @@
         <v>289</v>
       </c>
       <c r="E286" t="s">
-        <v>990</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -9678,7 +9756,7 @@
         <v>290</v>
       </c>
       <c r="E287" t="s">
-        <v>991</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -9695,7 +9773,7 @@
         <v>291</v>
       </c>
       <c r="E288" t="s">
-        <v>992</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -9712,7 +9790,7 @@
         <v>292</v>
       </c>
       <c r="E289" t="s">
-        <v>993</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -9729,7 +9807,7 @@
         <v>293</v>
       </c>
       <c r="E290" t="s">
-        <v>994</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -9746,7 +9824,7 @@
         <v>294</v>
       </c>
       <c r="E291" t="s">
-        <v>995</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -9763,7 +9841,7 @@
         <v>295</v>
       </c>
       <c r="E292" t="s">
-        <v>996</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -9780,7 +9858,7 @@
         <v>296</v>
       </c>
       <c r="E293" t="s">
-        <v>997</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -9797,7 +9875,7 @@
         <v>297</v>
       </c>
       <c r="E294" t="s">
-        <v>998</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -9814,7 +9892,7 @@
         <v>298</v>
       </c>
       <c r="E295" t="s">
-        <v>999</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -9831,7 +9909,7 @@
         <v>299</v>
       </c>
       <c r="E296" t="s">
-        <v>1000</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -9848,7 +9926,7 @@
         <v>300</v>
       </c>
       <c r="E297" t="s">
-        <v>1001</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -9865,7 +9943,7 @@
         <v>301</v>
       </c>
       <c r="E298" t="s">
-        <v>1002</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -9882,7 +9960,7 @@
         <v>302</v>
       </c>
       <c r="E299" t="s">
-        <v>1003</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -9899,7 +9977,7 @@
         <v>303</v>
       </c>
       <c r="E300" t="s">
-        <v>1004</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -9916,7 +9994,7 @@
         <v>304</v>
       </c>
       <c r="E301" t="s">
-        <v>1005</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -9933,7 +10011,7 @@
         <v>305</v>
       </c>
       <c r="E302" t="s">
-        <v>1006</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -9950,7 +10028,7 @@
         <v>306</v>
       </c>
       <c r="E303" t="s">
-        <v>1007</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -9967,7 +10045,7 @@
         <v>307</v>
       </c>
       <c r="E304" t="s">
-        <v>1008</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -9984,7 +10062,7 @@
         <v>308</v>
       </c>
       <c r="E305" t="s">
-        <v>1009</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -10001,7 +10079,7 @@
         <v>309</v>
       </c>
       <c r="E306" t="s">
-        <v>1010</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -10018,7 +10096,7 @@
         <v>310</v>
       </c>
       <c r="E307" t="s">
-        <v>1011</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -10035,7 +10113,7 @@
         <v>311</v>
       </c>
       <c r="E308" t="s">
-        <v>1012</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -10052,7 +10130,7 @@
         <v>312</v>
       </c>
       <c r="E309" t="s">
-        <v>1013</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -10069,7 +10147,7 @@
         <v>313</v>
       </c>
       <c r="E310" t="s">
-        <v>1014</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -10086,7 +10164,7 @@
         <v>314</v>
       </c>
       <c r="E311" t="s">
-        <v>1015</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -10103,7 +10181,7 @@
         <v>315</v>
       </c>
       <c r="E312" t="s">
-        <v>1016</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -10120,7 +10198,7 @@
         <v>316</v>
       </c>
       <c r="E313" t="s">
-        <v>1014</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -10137,7 +10215,7 @@
         <v>317</v>
       </c>
       <c r="E314" t="s">
-        <v>1017</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -10154,7 +10232,7 @@
         <v>318</v>
       </c>
       <c r="E315" t="s">
-        <v>1018</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -10171,7 +10249,7 @@
         <v>319</v>
       </c>
       <c r="E316" t="s">
-        <v>1019</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -10188,7 +10266,7 @@
         <v>320</v>
       </c>
       <c r="E317" t="s">
-        <v>1020</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -10205,7 +10283,7 @@
         <v>321</v>
       </c>
       <c r="E318" t="s">
-        <v>1021</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -10222,7 +10300,7 @@
         <v>322</v>
       </c>
       <c r="E319" t="s">
-        <v>1022</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -10239,7 +10317,7 @@
         <v>323</v>
       </c>
       <c r="E320" t="s">
-        <v>1023</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -10256,7 +10334,7 @@
         <v>324</v>
       </c>
       <c r="E321" t="s">
-        <v>1024</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -10273,7 +10351,7 @@
         <v>325</v>
       </c>
       <c r="E322" t="s">
-        <v>1025</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -10290,7 +10368,7 @@
         <v>326</v>
       </c>
       <c r="E323" t="s">
-        <v>1026</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -10307,7 +10385,7 @@
         <v>327</v>
       </c>
       <c r="E324" t="s">
-        <v>1027</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -10324,7 +10402,7 @@
         <v>328</v>
       </c>
       <c r="E325" t="s">
-        <v>1028</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -10341,7 +10419,7 @@
         <v>329</v>
       </c>
       <c r="E326" t="s">
-        <v>1029</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -10358,7 +10436,7 @@
         <v>330</v>
       </c>
       <c r="E327" t="s">
-        <v>1030</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -10375,7 +10453,7 @@
         <v>331</v>
       </c>
       <c r="E328" t="s">
-        <v>1031</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -10392,7 +10470,7 @@
         <v>332</v>
       </c>
       <c r="E329" t="s">
-        <v>1032</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -10409,7 +10487,7 @@
         <v>333</v>
       </c>
       <c r="E330" t="s">
-        <v>1033</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -10426,7 +10504,7 @@
         <v>334</v>
       </c>
       <c r="E331" t="s">
-        <v>1034</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -10443,7 +10521,7 @@
         <v>335</v>
       </c>
       <c r="E332" t="s">
-        <v>1035</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -10460,7 +10538,7 @@
         <v>336</v>
       </c>
       <c r="E333" t="s">
-        <v>1036</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -10477,7 +10555,7 @@
         <v>337</v>
       </c>
       <c r="E334" t="s">
-        <v>1037</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -10494,7 +10572,7 @@
         <v>338</v>
       </c>
       <c r="E335" t="s">
-        <v>1038</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -10511,7 +10589,7 @@
         <v>339</v>
       </c>
       <c r="E336" t="s">
-        <v>1039</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -10528,7 +10606,7 @@
         <v>340</v>
       </c>
       <c r="E337" t="s">
-        <v>1040</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -10545,7 +10623,7 @@
         <v>341</v>
       </c>
       <c r="E338" t="s">
-        <v>1041</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -10562,7 +10640,7 @@
         <v>342</v>
       </c>
       <c r="E339" t="s">
-        <v>1042</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -10579,7 +10657,7 @@
         <v>343</v>
       </c>
       <c r="E340" t="s">
-        <v>1043</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -10596,7 +10674,7 @@
         <v>344</v>
       </c>
       <c r="E341" t="s">
-        <v>1044</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -10613,7 +10691,7 @@
         <v>345</v>
       </c>
       <c r="E342" t="s">
-        <v>1045</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -10630,7 +10708,7 @@
         <v>346</v>
       </c>
       <c r="E343" t="s">
-        <v>1046</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -10647,7 +10725,7 @@
         <v>347</v>
       </c>
       <c r="E344" t="s">
-        <v>1047</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -10664,7 +10742,7 @@
         <v>348</v>
       </c>
       <c r="E345" t="s">
-        <v>1048</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -10681,7 +10759,7 @@
         <v>349</v>
       </c>
       <c r="E346" t="s">
-        <v>1049</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -10698,7 +10776,7 @@
         <v>350</v>
       </c>
       <c r="E347" t="s">
-        <v>1050</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -10715,7 +10793,7 @@
         <v>351</v>
       </c>
       <c r="E348" t="s">
-        <v>1051</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -10732,7 +10810,7 @@
         <v>352</v>
       </c>
       <c r="E349" t="s">
-        <v>1052</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -10749,7 +10827,7 @@
         <v>353</v>
       </c>
       <c r="E350" t="s">
-        <v>1053</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -10766,7 +10844,7 @@
         <v>354</v>
       </c>
       <c r="E351" t="s">
-        <v>1054</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -10783,7 +10861,7 @@
         <v>355</v>
       </c>
       <c r="E352" t="s">
-        <v>1055</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -10800,7 +10878,7 @@
         <v>356</v>
       </c>
       <c r="E353" t="s">
-        <v>1056</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -10817,7 +10895,7 @@
         <v>357</v>
       </c>
       <c r="E354" t="s">
-        <v>1057</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -10834,7 +10912,7 @@
         <v>358</v>
       </c>
       <c r="E355" t="s">
-        <v>1058</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -10851,7 +10929,7 @@
         <v>359</v>
       </c>
       <c r="E356" t="s">
-        <v>1059</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -10868,7 +10946,7 @@
         <v>360</v>
       </c>
       <c r="E357" t="s">
-        <v>1060</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -10885,7 +10963,7 @@
         <v>361</v>
       </c>
       <c r="E358" t="s">
-        <v>1061</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -10902,7 +10980,7 @@
         <v>362</v>
       </c>
       <c r="E359" t="s">
-        <v>1062</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -10919,7 +10997,7 @@
         <v>363</v>
       </c>
       <c r="E360" t="s">
-        <v>1063</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -10936,7 +11014,7 @@
         <v>364</v>
       </c>
       <c r="E361" t="s">
-        <v>1064</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -10953,7 +11031,7 @@
         <v>365</v>
       </c>
       <c r="E362" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -10970,7 +11048,7 @@
         <v>366</v>
       </c>
       <c r="E363" t="s">
-        <v>1066</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -10987,7 +11065,7 @@
         <v>367</v>
       </c>
       <c r="E364" t="s">
-        <v>1067</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -11004,7 +11082,7 @@
         <v>368</v>
       </c>
       <c r="E365" t="s">
-        <v>1068</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -11021,7 +11099,7 @@
         <v>369</v>
       </c>
       <c r="E366" t="s">
-        <v>1069</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -11038,7 +11116,7 @@
         <v>370</v>
       </c>
       <c r="E367" t="s">
-        <v>1070</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -11055,7 +11133,7 @@
         <v>371</v>
       </c>
       <c r="E368" t="s">
-        <v>1071</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -11072,7 +11150,7 @@
         <v>372</v>
       </c>
       <c r="E369" t="s">
-        <v>1072</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -11089,7 +11167,7 @@
         <v>373</v>
       </c>
       <c r="E370" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -11106,7 +11184,7 @@
         <v>374</v>
       </c>
       <c r="E371" t="s">
-        <v>1074</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -11123,7 +11201,7 @@
         <v>375</v>
       </c>
       <c r="E372" t="s">
-        <v>1075</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -11140,7 +11218,7 @@
         <v>376</v>
       </c>
       <c r="E373" t="s">
-        <v>1076</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -11157,7 +11235,7 @@
         <v>377</v>
       </c>
       <c r="E374" t="s">
-        <v>1077</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -11174,7 +11252,7 @@
         <v>378</v>
       </c>
       <c r="E375" t="s">
-        <v>1078</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -11191,7 +11269,7 @@
         <v>379</v>
       </c>
       <c r="E376" t="s">
-        <v>1079</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -11208,7 +11286,7 @@
         <v>380</v>
       </c>
       <c r="E377" t="s">
-        <v>1080</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -11225,7 +11303,7 @@
         <v>381</v>
       </c>
       <c r="E378" t="s">
-        <v>1081</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -11242,7 +11320,7 @@
         <v>382</v>
       </c>
       <c r="E379" t="s">
-        <v>1082</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -11259,7 +11337,7 @@
         <v>383</v>
       </c>
       <c r="E380" t="s">
-        <v>1083</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -11276,7 +11354,7 @@
         <v>384</v>
       </c>
       <c r="E381" t="s">
-        <v>1084</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -11293,7 +11371,7 @@
         <v>385</v>
       </c>
       <c r="E382" t="s">
-        <v>1085</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -11310,7 +11388,7 @@
         <v>386</v>
       </c>
       <c r="E383" t="s">
-        <v>1086</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -11327,7 +11405,7 @@
         <v>387</v>
       </c>
       <c r="E384" t="s">
-        <v>1087</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -11344,7 +11422,7 @@
         <v>388</v>
       </c>
       <c r="E385" t="s">
-        <v>1088</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -11361,7 +11439,7 @@
         <v>389</v>
       </c>
       <c r="E386" t="s">
-        <v>1089</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -11378,7 +11456,7 @@
         <v>390</v>
       </c>
       <c r="E387" t="s">
-        <v>1090</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -11395,7 +11473,7 @@
         <v>391</v>
       </c>
       <c r="E388" t="s">
-        <v>1091</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -11412,7 +11490,7 @@
         <v>392</v>
       </c>
       <c r="E389" t="s">
-        <v>1092</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -11429,7 +11507,7 @@
         <v>393</v>
       </c>
       <c r="E390" t="s">
-        <v>1093</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -11446,7 +11524,7 @@
         <v>394</v>
       </c>
       <c r="E391" t="s">
-        <v>1094</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -11463,7 +11541,7 @@
         <v>395</v>
       </c>
       <c r="E392" t="s">
-        <v>1095</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -11480,7 +11558,7 @@
         <v>396</v>
       </c>
       <c r="E393" t="s">
-        <v>1096</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -11497,7 +11575,7 @@
         <v>397</v>
       </c>
       <c r="E394" t="s">
-        <v>1097</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -11514,7 +11592,7 @@
         <v>398</v>
       </c>
       <c r="E395" t="s">
-        <v>1098</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -11531,7 +11609,7 @@
         <v>399</v>
       </c>
       <c r="E396" t="s">
-        <v>1099</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -11548,7 +11626,7 @@
         <v>400</v>
       </c>
       <c r="E397" t="s">
-        <v>1100</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -11565,7 +11643,7 @@
         <v>401</v>
       </c>
       <c r="E398" t="s">
-        <v>1101</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -11582,7 +11660,7 @@
         <v>402</v>
       </c>
       <c r="E399" t="s">
-        <v>1102</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -11599,7 +11677,7 @@
         <v>403</v>
       </c>
       <c r="E400" t="s">
-        <v>1103</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -11616,7 +11694,7 @@
         <v>404</v>
       </c>
       <c r="E401" t="s">
-        <v>1104</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -11633,7 +11711,7 @@
         <v>405</v>
       </c>
       <c r="E402" t="s">
-        <v>1105</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -11650,7 +11728,7 @@
         <v>406</v>
       </c>
       <c r="E403" t="s">
-        <v>1106</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -11667,7 +11745,7 @@
         <v>407</v>
       </c>
       <c r="E404" t="s">
-        <v>1107</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -11684,7 +11762,7 @@
         <v>408</v>
       </c>
       <c r="E405" t="s">
-        <v>1108</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -11701,7 +11779,7 @@
         <v>409</v>
       </c>
       <c r="E406" t="s">
-        <v>1109</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -11718,7 +11796,7 @@
         <v>410</v>
       </c>
       <c r="E407" t="s">
-        <v>1110</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -11735,7 +11813,7 @@
         <v>411</v>
       </c>
       <c r="E408" t="s">
-        <v>1111</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -11752,7 +11830,7 @@
         <v>412</v>
       </c>
       <c r="E409" t="s">
-        <v>1112</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -11769,7 +11847,7 @@
         <v>413</v>
       </c>
       <c r="E410" t="s">
-        <v>1113</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -11786,7 +11864,7 @@
         <v>414</v>
       </c>
       <c r="E411" t="s">
-        <v>1114</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -11803,7 +11881,7 @@
         <v>415</v>
       </c>
       <c r="E412" t="s">
-        <v>1115</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -11820,7 +11898,7 @@
         <v>416</v>
       </c>
       <c r="E413" t="s">
-        <v>1116</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -11837,7 +11915,7 @@
         <v>417</v>
       </c>
       <c r="E414" t="s">
-        <v>1117</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -11854,7 +11932,7 @@
         <v>418</v>
       </c>
       <c r="E415" t="s">
-        <v>1118</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -11871,7 +11949,7 @@
         <v>419</v>
       </c>
       <c r="E416" t="s">
-        <v>1119</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -11888,7 +11966,7 @@
         <v>420</v>
       </c>
       <c r="E417" t="s">
-        <v>1120</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -11905,7 +11983,7 @@
         <v>421</v>
       </c>
       <c r="E418" t="s">
-        <v>1121</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -11922,7 +12000,7 @@
         <v>422</v>
       </c>
       <c r="E419" t="s">
-        <v>1122</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -11939,7 +12017,7 @@
         <v>423</v>
       </c>
       <c r="E420" t="s">
-        <v>1123</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -11956,7 +12034,7 @@
         <v>424</v>
       </c>
       <c r="E421" t="s">
-        <v>1124</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -11973,7 +12051,7 @@
         <v>425</v>
       </c>
       <c r="E422" t="s">
-        <v>1125</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -11990,7 +12068,7 @@
         <v>426</v>
       </c>
       <c r="E423" t="s">
-        <v>1126</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -12007,7 +12085,7 @@
         <v>427</v>
       </c>
       <c r="E424" t="s">
-        <v>1127</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -12024,7 +12102,7 @@
         <v>428</v>
       </c>
       <c r="E425" t="s">
-        <v>1128</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -12041,7 +12119,7 @@
         <v>429</v>
       </c>
       <c r="E426" t="s">
-        <v>1129</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -12058,7 +12136,7 @@
         <v>430</v>
       </c>
       <c r="E427" t="s">
-        <v>1130</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -12075,7 +12153,7 @@
         <v>431</v>
       </c>
       <c r="E428" t="s">
-        <v>1131</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -12092,7 +12170,7 @@
         <v>432</v>
       </c>
       <c r="E429" t="s">
-        <v>1132</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -12109,7 +12187,7 @@
         <v>433</v>
       </c>
       <c r="E430" t="s">
-        <v>1133</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -12126,7 +12204,7 @@
         <v>434</v>
       </c>
       <c r="E431" t="s">
-        <v>1134</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -12143,7 +12221,7 @@
         <v>435</v>
       </c>
       <c r="E432" t="s">
-        <v>1135</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -12160,7 +12238,7 @@
         <v>436</v>
       </c>
       <c r="E433" t="s">
-        <v>1136</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -12177,7 +12255,7 @@
         <v>437</v>
       </c>
       <c r="E434" t="s">
-        <v>1137</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -12194,7 +12272,7 @@
         <v>438</v>
       </c>
       <c r="E435" t="s">
-        <v>1138</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -12211,7 +12289,7 @@
         <v>439</v>
       </c>
       <c r="E436" t="s">
-        <v>1139</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -12228,7 +12306,7 @@
         <v>440</v>
       </c>
       <c r="E437" t="s">
-        <v>1140</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -12245,7 +12323,7 @@
         <v>441</v>
       </c>
       <c r="E438" t="s">
-        <v>1141</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -12262,7 +12340,7 @@
         <v>442</v>
       </c>
       <c r="E439" t="s">
-        <v>1142</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -12279,7 +12357,7 @@
         <v>443</v>
       </c>
       <c r="E440" t="s">
-        <v>1143</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -12296,7 +12374,7 @@
         <v>444</v>
       </c>
       <c r="E441" t="s">
-        <v>1144</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -12313,7 +12391,7 @@
         <v>445</v>
       </c>
       <c r="E442" t="s">
-        <v>1145</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -12330,7 +12408,7 @@
         <v>446</v>
       </c>
       <c r="E443" t="s">
-        <v>1146</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -12347,7 +12425,7 @@
         <v>447</v>
       </c>
       <c r="E444" t="s">
-        <v>1147</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -12364,7 +12442,7 @@
         <v>448</v>
       </c>
       <c r="E445" t="s">
-        <v>1148</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -12381,7 +12459,7 @@
         <v>449</v>
       </c>
       <c r="E446" t="s">
-        <v>1149</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -12398,7 +12476,7 @@
         <v>450</v>
       </c>
       <c r="E447" t="s">
-        <v>1150</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -12415,7 +12493,7 @@
         <v>451</v>
       </c>
       <c r="E448" t="s">
-        <v>1151</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -12432,7 +12510,7 @@
         <v>452</v>
       </c>
       <c r="E449" t="s">
-        <v>1152</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -12449,7 +12527,7 @@
         <v>453</v>
       </c>
       <c r="E450" t="s">
-        <v>1153</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -12466,7 +12544,7 @@
         <v>454</v>
       </c>
       <c r="E451" t="s">
-        <v>1154</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -12483,7 +12561,7 @@
         <v>455</v>
       </c>
       <c r="E452" t="s">
-        <v>1155</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -12500,7 +12578,7 @@
         <v>456</v>
       </c>
       <c r="E453" t="s">
-        <v>1156</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -12517,7 +12595,7 @@
         <v>457</v>
       </c>
       <c r="E454" t="s">
-        <v>1157</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -12534,7 +12612,7 @@
         <v>458</v>
       </c>
       <c r="E455" t="s">
-        <v>1158</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -12551,7 +12629,7 @@
         <v>459</v>
       </c>
       <c r="E456" t="s">
-        <v>1159</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -12568,7 +12646,7 @@
         <v>460</v>
       </c>
       <c r="E457" t="s">
-        <v>1160</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -12585,7 +12663,7 @@
         <v>461</v>
       </c>
       <c r="E458" t="s">
-        <v>1161</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -12602,7 +12680,7 @@
         <v>462</v>
       </c>
       <c r="E459" t="s">
-        <v>1162</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -12619,7 +12697,7 @@
         <v>463</v>
       </c>
       <c r="E460" t="s">
-        <v>1163</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -12636,7 +12714,7 @@
         <v>464</v>
       </c>
       <c r="E461" t="s">
-        <v>1164</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -12653,7 +12731,7 @@
         <v>465</v>
       </c>
       <c r="E462" t="s">
-        <v>1165</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -12670,7 +12748,7 @@
         <v>466</v>
       </c>
       <c r="E463" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -12687,7 +12765,7 @@
         <v>467</v>
       </c>
       <c r="E464" t="s">
-        <v>1167</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -12704,7 +12782,7 @@
         <v>468</v>
       </c>
       <c r="E465" t="s">
-        <v>1168</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -12721,7 +12799,7 @@
         <v>469</v>
       </c>
       <c r="E466" t="s">
-        <v>1169</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -12738,7 +12816,7 @@
         <v>470</v>
       </c>
       <c r="E467" t="s">
-        <v>1170</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -12755,7 +12833,7 @@
         <v>471</v>
       </c>
       <c r="E468" t="s">
-        <v>1171</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -12772,7 +12850,7 @@
         <v>472</v>
       </c>
       <c r="E469" t="s">
-        <v>1172</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -12789,7 +12867,7 @@
         <v>473</v>
       </c>
       <c r="E470" t="s">
-        <v>1173</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -12806,7 +12884,7 @@
         <v>474</v>
       </c>
       <c r="E471" t="s">
-        <v>1174</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -12823,7 +12901,7 @@
         <v>475</v>
       </c>
       <c r="E472" t="s">
-        <v>1175</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -12840,7 +12918,7 @@
         <v>476</v>
       </c>
       <c r="E473" t="s">
-        <v>1176</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -12857,7 +12935,7 @@
         <v>477</v>
       </c>
       <c r="E474" t="s">
-        <v>1177</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -12874,7 +12952,7 @@
         <v>478</v>
       </c>
       <c r="E475" t="s">
-        <v>1178</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -12891,7 +12969,7 @@
         <v>479</v>
       </c>
       <c r="E476" t="s">
-        <v>1179</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -12908,7 +12986,7 @@
         <v>480</v>
       </c>
       <c r="E477" t="s">
-        <v>1180</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -12925,7 +13003,7 @@
         <v>481</v>
       </c>
       <c r="E478" t="s">
-        <v>1181</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -12942,7 +13020,7 @@
         <v>482</v>
       </c>
       <c r="E479" t="s">
-        <v>1182</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -12959,7 +13037,7 @@
         <v>483</v>
       </c>
       <c r="E480" t="s">
-        <v>1183</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -12976,7 +13054,7 @@
         <v>484</v>
       </c>
       <c r="E481" t="s">
-        <v>1184</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -12993,7 +13071,7 @@
         <v>485</v>
       </c>
       <c r="E482" t="s">
-        <v>1185</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -13010,7 +13088,7 @@
         <v>486</v>
       </c>
       <c r="E483" t="s">
-        <v>1186</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -13027,7 +13105,7 @@
         <v>487</v>
       </c>
       <c r="E484" t="s">
-        <v>1187</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -13044,7 +13122,7 @@
         <v>488</v>
       </c>
       <c r="E485" t="s">
-        <v>1188</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -13061,7 +13139,7 @@
         <v>489</v>
       </c>
       <c r="E486" t="s">
-        <v>1189</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -13078,7 +13156,7 @@
         <v>490</v>
       </c>
       <c r="E487" t="s">
-        <v>1190</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -13095,7 +13173,7 @@
         <v>491</v>
       </c>
       <c r="E488" t="s">
-        <v>1191</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -13112,7 +13190,7 @@
         <v>492</v>
       </c>
       <c r="E489" t="s">
-        <v>1192</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -13129,7 +13207,7 @@
         <v>493</v>
       </c>
       <c r="E490" t="s">
-        <v>1193</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -13146,7 +13224,7 @@
         <v>494</v>
       </c>
       <c r="E491" t="s">
-        <v>1194</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -13163,7 +13241,7 @@
         <v>495</v>
       </c>
       <c r="E492" t="s">
-        <v>1195</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -13180,7 +13258,7 @@
         <v>496</v>
       </c>
       <c r="E493" t="s">
-        <v>1196</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -13197,7 +13275,7 @@
         <v>497</v>
       </c>
       <c r="E494" t="s">
-        <v>1197</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -13214,7 +13292,7 @@
         <v>498</v>
       </c>
       <c r="E495" t="s">
-        <v>1198</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -13231,7 +13309,7 @@
         <v>499</v>
       </c>
       <c r="E496" t="s">
-        <v>1199</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -13248,7 +13326,7 @@
         <v>500</v>
       </c>
       <c r="E497" t="s">
-        <v>1200</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -13265,7 +13343,7 @@
         <v>501</v>
       </c>
       <c r="E498" t="s">
-        <v>1201</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -13282,7 +13360,7 @@
         <v>502</v>
       </c>
       <c r="E499" t="s">
-        <v>1202</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -13299,7 +13377,7 @@
         <v>503</v>
       </c>
       <c r="E500" t="s">
-        <v>1203</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -13316,7 +13394,7 @@
         <v>504</v>
       </c>
       <c r="E501" t="s">
-        <v>1204</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -13333,7 +13411,7 @@
         <v>505</v>
       </c>
       <c r="E502" t="s">
-        <v>1205</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -13350,7 +13428,7 @@
         <v>506</v>
       </c>
       <c r="E503" t="s">
-        <v>1206</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -13367,7 +13445,7 @@
         <v>507</v>
       </c>
       <c r="E504" t="s">
-        <v>1207</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -13384,7 +13462,7 @@
         <v>508</v>
       </c>
       <c r="E505" t="s">
-        <v>1208</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -13401,7 +13479,7 @@
         <v>509</v>
       </c>
       <c r="E506" t="s">
-        <v>1209</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -13418,7 +13496,7 @@
         <v>510</v>
       </c>
       <c r="E507" t="s">
-        <v>1209</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -13435,7 +13513,7 @@
         <v>511</v>
       </c>
       <c r="E508" t="s">
-        <v>1210</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -13452,7 +13530,7 @@
         <v>512</v>
       </c>
       <c r="E509" t="s">
-        <v>1211</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -13469,7 +13547,7 @@
         <v>513</v>
       </c>
       <c r="E510" t="s">
-        <v>1212</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -13486,7 +13564,7 @@
         <v>514</v>
       </c>
       <c r="E511" t="s">
-        <v>1213</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -13503,7 +13581,7 @@
         <v>515</v>
       </c>
       <c r="E512" t="s">
-        <v>1214</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -13520,7 +13598,7 @@
         <v>516</v>
       </c>
       <c r="E513" t="s">
-        <v>1215</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -13537,7 +13615,7 @@
         <v>517</v>
       </c>
       <c r="E514" t="s">
-        <v>1216</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -13554,7 +13632,7 @@
         <v>518</v>
       </c>
       <c r="E515" t="s">
-        <v>1217</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -13571,7 +13649,7 @@
         <v>519</v>
       </c>
       <c r="E516" t="s">
-        <v>1218</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -13588,7 +13666,7 @@
         <v>520</v>
       </c>
       <c r="E517" t="s">
-        <v>1219</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -13605,7 +13683,7 @@
         <v>521</v>
       </c>
       <c r="E518" t="s">
-        <v>1220</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -13622,7 +13700,7 @@
         <v>522</v>
       </c>
       <c r="E519" t="s">
-        <v>1221</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -13639,7 +13717,7 @@
         <v>523</v>
       </c>
       <c r="E520" t="s">
-        <v>1222</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -13656,7 +13734,7 @@
         <v>524</v>
       </c>
       <c r="E521" t="s">
-        <v>1223</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -13673,7 +13751,7 @@
         <v>525</v>
       </c>
       <c r="E522" t="s">
-        <v>1224</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="523" spans="1:5">
@@ -13690,7 +13768,7 @@
         <v>526</v>
       </c>
       <c r="E523" t="s">
-        <v>1225</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -13707,7 +13785,7 @@
         <v>527</v>
       </c>
       <c r="E524" t="s">
-        <v>1226</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -13724,7 +13802,7 @@
         <v>528</v>
       </c>
       <c r="E525" t="s">
-        <v>1227</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -13741,7 +13819,7 @@
         <v>529</v>
       </c>
       <c r="E526" t="s">
-        <v>1228</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -13758,7 +13836,7 @@
         <v>530</v>
       </c>
       <c r="E527" t="s">
-        <v>1229</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -13775,7 +13853,7 @@
         <v>531</v>
       </c>
       <c r="E528" t="s">
-        <v>1230</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -13792,7 +13870,7 @@
         <v>532</v>
       </c>
       <c r="E529" t="s">
-        <v>1231</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -13809,7 +13887,7 @@
         <v>533</v>
       </c>
       <c r="E530" t="s">
-        <v>1232</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -13826,7 +13904,7 @@
         <v>534</v>
       </c>
       <c r="E531" t="s">
-        <v>1233</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -13843,7 +13921,7 @@
         <v>535</v>
       </c>
       <c r="E532" t="s">
-        <v>1234</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -13860,7 +13938,7 @@
         <v>536</v>
       </c>
       <c r="E533" t="s">
-        <v>1235</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -13877,7 +13955,7 @@
         <v>537</v>
       </c>
       <c r="E534" t="s">
-        <v>1236</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -13894,7 +13972,7 @@
         <v>538</v>
       </c>
       <c r="E535" t="s">
-        <v>1237</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -13911,7 +13989,7 @@
         <v>539</v>
       </c>
       <c r="E536" t="s">
-        <v>1238</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -13928,7 +14006,7 @@
         <v>540</v>
       </c>
       <c r="E537" t="s">
-        <v>1239</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -13945,7 +14023,7 @@
         <v>541</v>
       </c>
       <c r="E538" t="s">
-        <v>1240</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -13962,7 +14040,7 @@
         <v>542</v>
       </c>
       <c r="E539" t="s">
-        <v>1241</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="540" spans="1:5">
@@ -13979,7 +14057,7 @@
         <v>543</v>
       </c>
       <c r="E540" t="s">
-        <v>1242</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -13996,7 +14074,7 @@
         <v>544</v>
       </c>
       <c r="E541" t="s">
-        <v>1243</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="542" spans="1:5">
@@ -14013,7 +14091,7 @@
         <v>545</v>
       </c>
       <c r="E542" t="s">
-        <v>1244</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -14030,7 +14108,7 @@
         <v>546</v>
       </c>
       <c r="E543" t="s">
-        <v>1245</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -14047,7 +14125,7 @@
         <v>547</v>
       </c>
       <c r="E544" t="s">
-        <v>1246</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -14064,7 +14142,7 @@
         <v>548</v>
       </c>
       <c r="E545" t="s">
-        <v>1247</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="546" spans="1:5">
@@ -14081,7 +14159,7 @@
         <v>549</v>
       </c>
       <c r="E546" t="s">
-        <v>1248</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -14098,7 +14176,7 @@
         <v>550</v>
       </c>
       <c r="E547" t="s">
-        <v>1249</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -14115,7 +14193,7 @@
         <v>551</v>
       </c>
       <c r="E548" t="s">
-        <v>1250</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -14132,7 +14210,7 @@
         <v>552</v>
       </c>
       <c r="E549" t="s">
-        <v>1251</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -14149,7 +14227,7 @@
         <v>553</v>
       </c>
       <c r="E550" t="s">
-        <v>1252</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -14166,7 +14244,7 @@
         <v>554</v>
       </c>
       <c r="E551" t="s">
-        <v>1253</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -14183,7 +14261,7 @@
         <v>555</v>
       </c>
       <c r="E552" t="s">
-        <v>1254</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -14200,7 +14278,7 @@
         <v>556</v>
       </c>
       <c r="E553" t="s">
-        <v>1255</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -14217,7 +14295,7 @@
         <v>557</v>
       </c>
       <c r="E554" t="s">
-        <v>1256</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -14234,7 +14312,7 @@
         <v>558</v>
       </c>
       <c r="E555" t="s">
-        <v>1257</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -14251,7 +14329,7 @@
         <v>559</v>
       </c>
       <c r="E556" t="s">
-        <v>1257</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -14268,7 +14346,7 @@
         <v>560</v>
       </c>
       <c r="E557" t="s">
-        <v>1257</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -14285,7 +14363,7 @@
         <v>561</v>
       </c>
       <c r="E558" t="s">
-        <v>1258</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="559" spans="1:5">
@@ -14302,7 +14380,7 @@
         <v>562</v>
       </c>
       <c r="E559" t="s">
-        <v>1259</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -14319,7 +14397,7 @@
         <v>563</v>
       </c>
       <c r="E560" t="s">
-        <v>1260</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -14336,7 +14414,7 @@
         <v>564</v>
       </c>
       <c r="E561" t="s">
-        <v>1261</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -14353,7 +14431,7 @@
         <v>565</v>
       </c>
       <c r="E562" t="s">
-        <v>1262</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -14370,7 +14448,7 @@
         <v>566</v>
       </c>
       <c r="E563" t="s">
-        <v>1263</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -14387,7 +14465,7 @@
         <v>567</v>
       </c>
       <c r="E564" t="s">
-        <v>1263</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -14404,7 +14482,7 @@
         <v>568</v>
       </c>
       <c r="E565" t="s">
-        <v>1264</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="566" spans="1:5">
@@ -14421,7 +14499,7 @@
         <v>569</v>
       </c>
       <c r="E566" t="s">
-        <v>1265</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -14438,7 +14516,7 @@
         <v>570</v>
       </c>
       <c r="E567" t="s">
-        <v>1266</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="568" spans="1:5">
@@ -14455,7 +14533,7 @@
         <v>571</v>
       </c>
       <c r="E568" t="s">
-        <v>1267</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -14472,7 +14550,7 @@
         <v>572</v>
       </c>
       <c r="E569" t="s">
-        <v>1268</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -14489,7 +14567,7 @@
         <v>573</v>
       </c>
       <c r="E570" t="s">
-        <v>1269</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -14506,7 +14584,7 @@
         <v>574</v>
       </c>
       <c r="E571" t="s">
-        <v>1270</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -14523,7 +14601,7 @@
         <v>575</v>
       </c>
       <c r="E572" t="s">
-        <v>1271</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -14540,7 +14618,7 @@
         <v>576</v>
       </c>
       <c r="E573" t="s">
-        <v>1272</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -14557,7 +14635,7 @@
         <v>577</v>
       </c>
       <c r="E574" t="s">
-        <v>1273</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -14574,7 +14652,7 @@
         <v>578</v>
       </c>
       <c r="E575" t="s">
-        <v>1274</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -14591,7 +14669,7 @@
         <v>579</v>
       </c>
       <c r="E576" t="s">
-        <v>1275</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="577" spans="1:5">
@@ -14608,7 +14686,7 @@
         <v>580</v>
       </c>
       <c r="E577" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="578" spans="1:5">
@@ -14625,7 +14703,7 @@
         <v>581</v>
       </c>
       <c r="E578" t="s">
-        <v>1277</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="579" spans="1:5">
@@ -14642,7 +14720,7 @@
         <v>582</v>
       </c>
       <c r="E579" t="s">
-        <v>1278</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="580" spans="1:5">
@@ -14659,7 +14737,7 @@
         <v>583</v>
       </c>
       <c r="E580" t="s">
-        <v>1279</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="581" spans="1:5">
@@ -14676,7 +14754,7 @@
         <v>584</v>
       </c>
       <c r="E581" t="s">
-        <v>1280</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="582" spans="1:5">
@@ -14693,7 +14771,7 @@
         <v>585</v>
       </c>
       <c r="E582" t="s">
-        <v>1281</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="583" spans="1:5">
@@ -14710,7 +14788,7 @@
         <v>586</v>
       </c>
       <c r="E583" t="s">
-        <v>1282</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="584" spans="1:5">
@@ -14727,7 +14805,7 @@
         <v>587</v>
       </c>
       <c r="E584" t="s">
-        <v>1283</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="585" spans="1:5">
@@ -14744,7 +14822,7 @@
         <v>588</v>
       </c>
       <c r="E585" t="s">
-        <v>1284</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="586" spans="1:5">
@@ -14761,7 +14839,7 @@
         <v>589</v>
       </c>
       <c r="E586" t="s">
-        <v>1285</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="587" spans="1:5">
@@ -14778,7 +14856,7 @@
         <v>590</v>
       </c>
       <c r="E587" t="s">
-        <v>1286</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="588" spans="1:5">
@@ -14795,7 +14873,7 @@
         <v>591</v>
       </c>
       <c r="E588" t="s">
-        <v>1287</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="589" spans="1:5">
@@ -14812,7 +14890,7 @@
         <v>592</v>
       </c>
       <c r="E589" t="s">
-        <v>1288</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="590" spans="1:5">
@@ -14829,7 +14907,7 @@
         <v>593</v>
       </c>
       <c r="E590" t="s">
-        <v>1289</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="591" spans="1:5">
@@ -14846,7 +14924,7 @@
         <v>594</v>
       </c>
       <c r="E591" t="s">
-        <v>1290</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="592" spans="1:5">
@@ -14863,7 +14941,7 @@
         <v>595</v>
       </c>
       <c r="E592" t="s">
-        <v>1291</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="593" spans="1:5">
@@ -14880,7 +14958,7 @@
         <v>596</v>
       </c>
       <c r="E593" t="s">
-        <v>1292</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="594" spans="1:5">
@@ -14897,7 +14975,7 @@
         <v>597</v>
       </c>
       <c r="E594" t="s">
-        <v>1293</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="595" spans="1:5">
@@ -14914,7 +14992,7 @@
         <v>598</v>
       </c>
       <c r="E595" t="s">
-        <v>1294</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="596" spans="1:5">
@@ -14931,7 +15009,7 @@
         <v>599</v>
       </c>
       <c r="E596" t="s">
-        <v>1295</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="597" spans="1:5">
@@ -14948,7 +15026,7 @@
         <v>600</v>
       </c>
       <c r="E597" t="s">
-        <v>1296</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="598" spans="1:5">
@@ -14965,7 +15043,7 @@
         <v>601</v>
       </c>
       <c r="E598" t="s">
-        <v>1297</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="599" spans="1:5">
@@ -14982,7 +15060,7 @@
         <v>602</v>
       </c>
       <c r="E599" t="s">
-        <v>1298</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="600" spans="1:5">
@@ -14999,7 +15077,7 @@
         <v>603</v>
       </c>
       <c r="E600" t="s">
-        <v>1299</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="601" spans="1:5">
@@ -15016,7 +15094,7 @@
         <v>604</v>
       </c>
       <c r="E601" t="s">
-        <v>1300</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="602" spans="1:5">
@@ -15033,7 +15111,7 @@
         <v>605</v>
       </c>
       <c r="E602" t="s">
-        <v>1301</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="603" spans="1:5">
@@ -15050,7 +15128,7 @@
         <v>606</v>
       </c>
       <c r="E603" t="s">
-        <v>1302</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="604" spans="1:5">
@@ -15067,7 +15145,7 @@
         <v>607</v>
       </c>
       <c r="E604" t="s">
-        <v>1303</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="605" spans="1:5">
@@ -15084,7 +15162,7 @@
         <v>608</v>
       </c>
       <c r="E605" t="s">
-        <v>1304</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -15101,7 +15179,7 @@
         <v>609</v>
       </c>
       <c r="E606" t="s">
-        <v>1305</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="607" spans="1:5">
@@ -15118,7 +15196,7 @@
         <v>610</v>
       </c>
       <c r="E607" t="s">
-        <v>1306</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="608" spans="1:5">
@@ -15135,7 +15213,7 @@
         <v>611</v>
       </c>
       <c r="E608" t="s">
-        <v>1307</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="609" spans="1:5">
@@ -15152,7 +15230,7 @@
         <v>612</v>
       </c>
       <c r="E609" t="s">
-        <v>1308</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="610" spans="1:5">
@@ -15169,7 +15247,7 @@
         <v>613</v>
       </c>
       <c r="E610" t="s">
-        <v>1309</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="611" spans="1:5">
@@ -15186,7 +15264,7 @@
         <v>614</v>
       </c>
       <c r="E611" t="s">
-        <v>1310</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="612" spans="1:5">
@@ -15203,7 +15281,7 @@
         <v>615</v>
       </c>
       <c r="E612" t="s">
-        <v>1311</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="613" spans="1:5">
@@ -15220,7 +15298,7 @@
         <v>616</v>
       </c>
       <c r="E613" t="s">
-        <v>1312</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="614" spans="1:5">
@@ -15237,7 +15315,7 @@
         <v>617</v>
       </c>
       <c r="E614" t="s">
-        <v>1313</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="615" spans="1:5">
@@ -15254,7 +15332,7 @@
         <v>618</v>
       </c>
       <c r="E615" t="s">
-        <v>1314</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="616" spans="1:5">
@@ -15271,7 +15349,7 @@
         <v>619</v>
       </c>
       <c r="E616" t="s">
-        <v>1315</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="617" spans="1:5">
@@ -15288,7 +15366,7 @@
         <v>620</v>
       </c>
       <c r="E617" t="s">
-        <v>1316</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="618" spans="1:5">
@@ -15305,7 +15383,7 @@
         <v>621</v>
       </c>
       <c r="E618" t="s">
-        <v>1317</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="619" spans="1:5">
@@ -15322,7 +15400,7 @@
         <v>622</v>
       </c>
       <c r="E619" t="s">
-        <v>1318</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="620" spans="1:5">
@@ -15339,7 +15417,7 @@
         <v>623</v>
       </c>
       <c r="E620" t="s">
-        <v>1319</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="621" spans="1:5">
@@ -15356,7 +15434,7 @@
         <v>624</v>
       </c>
       <c r="E621" t="s">
-        <v>1320</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="622" spans="1:5">
@@ -15373,7 +15451,7 @@
         <v>625</v>
       </c>
       <c r="E622" t="s">
-        <v>1321</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="623" spans="1:5">
@@ -15390,7 +15468,7 @@
         <v>626</v>
       </c>
       <c r="E623" t="s">
-        <v>1322</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="624" spans="1:5">
@@ -15407,7 +15485,7 @@
         <v>627</v>
       </c>
       <c r="E624" t="s">
-        <v>1323</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="625" spans="1:5">
@@ -15424,7 +15502,7 @@
         <v>628</v>
       </c>
       <c r="E625" t="s">
-        <v>1324</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="626" spans="1:5">
@@ -15441,7 +15519,7 @@
         <v>629</v>
       </c>
       <c r="E626" t="s">
-        <v>1325</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="627" spans="1:5">
@@ -15458,7 +15536,7 @@
         <v>630</v>
       </c>
       <c r="E627" t="s">
-        <v>1326</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="628" spans="1:5">
@@ -15475,7 +15553,7 @@
         <v>631</v>
       </c>
       <c r="E628" t="s">
-        <v>1327</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -15492,7 +15570,7 @@
         <v>632</v>
       </c>
       <c r="E629" t="s">
-        <v>1328</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="630" spans="1:5">
@@ -15509,7 +15587,7 @@
         <v>633</v>
       </c>
       <c r="E630" t="s">
-        <v>1329</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="631" spans="1:5">
@@ -15526,7 +15604,7 @@
         <v>634</v>
       </c>
       <c r="E631" t="s">
-        <v>1330</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="632" spans="1:5">
@@ -15543,7 +15621,7 @@
         <v>635</v>
       </c>
       <c r="E632" t="s">
-        <v>1331</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="633" spans="1:5">
@@ -15560,7 +15638,7 @@
         <v>636</v>
       </c>
       <c r="E633" t="s">
-        <v>1332</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="634" spans="1:5">
@@ -15577,7 +15655,7 @@
         <v>637</v>
       </c>
       <c r="E634" t="s">
-        <v>1333</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="635" spans="1:5">
@@ -15594,7 +15672,7 @@
         <v>638</v>
       </c>
       <c r="E635" t="s">
-        <v>1334</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="636" spans="1:5">
@@ -15611,7 +15689,7 @@
         <v>639</v>
       </c>
       <c r="E636" t="s">
-        <v>1335</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="637" spans="1:5">
@@ -15628,7 +15706,7 @@
         <v>640</v>
       </c>
       <c r="E637" t="s">
-        <v>1336</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="638" spans="1:5">
@@ -15645,7 +15723,7 @@
         <v>641</v>
       </c>
       <c r="E638" t="s">
-        <v>1337</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="639" spans="1:5">
@@ -15662,7 +15740,7 @@
         <v>642</v>
       </c>
       <c r="E639" t="s">
-        <v>1338</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="640" spans="1:5">
@@ -15679,7 +15757,7 @@
         <v>643</v>
       </c>
       <c r="E640" t="s">
-        <v>1339</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="641" spans="1:5">
@@ -15696,7 +15774,7 @@
         <v>644</v>
       </c>
       <c r="E641" t="s">
-        <v>1340</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="642" spans="1:5">
@@ -15713,7 +15791,7 @@
         <v>645</v>
       </c>
       <c r="E642" t="s">
-        <v>1341</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="643" spans="1:5">
@@ -15730,7 +15808,7 @@
         <v>646</v>
       </c>
       <c r="E643" t="s">
-        <v>1342</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="644" spans="1:5">
@@ -15747,7 +15825,7 @@
         <v>647</v>
       </c>
       <c r="E644" t="s">
-        <v>1343</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="645" spans="1:5">
@@ -15764,7 +15842,7 @@
         <v>648</v>
       </c>
       <c r="E645" t="s">
-        <v>1344</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="646" spans="1:5">
@@ -15781,7 +15859,7 @@
         <v>649</v>
       </c>
       <c r="E646" t="s">
-        <v>1345</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="647" spans="1:5">
@@ -15798,7 +15876,7 @@
         <v>650</v>
       </c>
       <c r="E647" t="s">
-        <v>1346</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="648" spans="1:5">
@@ -15815,7 +15893,7 @@
         <v>651</v>
       </c>
       <c r="E648" t="s">
-        <v>1347</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -15832,7 +15910,7 @@
         <v>652</v>
       </c>
       <c r="E649" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="650" spans="1:5">
@@ -15849,7 +15927,7 @@
         <v>653</v>
       </c>
       <c r="E650" t="s">
-        <v>1349</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="651" spans="1:5">
@@ -15866,7 +15944,7 @@
         <v>654</v>
       </c>
       <c r="E651" t="s">
-        <v>1350</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="652" spans="1:5">
@@ -15883,7 +15961,7 @@
         <v>655</v>
       </c>
       <c r="E652" t="s">
-        <v>1351</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="653" spans="1:5">
@@ -15900,7 +15978,7 @@
         <v>656</v>
       </c>
       <c r="E653" t="s">
-        <v>1352</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="654" spans="1:5">
@@ -15917,7 +15995,7 @@
         <v>657</v>
       </c>
       <c r="E654" t="s">
-        <v>1353</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="655" spans="1:5">
@@ -15934,7 +16012,7 @@
         <v>658</v>
       </c>
       <c r="E655" t="s">
-        <v>1354</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="656" spans="1:5">
@@ -15951,7 +16029,7 @@
         <v>659</v>
       </c>
       <c r="E656" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="657" spans="1:5">
@@ -15968,7 +16046,7 @@
         <v>660</v>
       </c>
       <c r="E657" t="s">
-        <v>1356</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="658" spans="1:5">
@@ -15985,7 +16063,7 @@
         <v>661</v>
       </c>
       <c r="E658" t="s">
-        <v>1357</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="659" spans="1:5">
@@ -16002,7 +16080,7 @@
         <v>662</v>
       </c>
       <c r="E659" t="s">
-        <v>1358</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="660" spans="1:5">
@@ -16019,7 +16097,7 @@
         <v>663</v>
       </c>
       <c r="E660" t="s">
-        <v>1359</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="661" spans="1:5">
@@ -16036,7 +16114,7 @@
         <v>664</v>
       </c>
       <c r="E661" t="s">
-        <v>1360</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="662" spans="1:5">
@@ -16053,7 +16131,7 @@
         <v>665</v>
       </c>
       <c r="E662" t="s">
-        <v>1361</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="663" spans="1:5">
@@ -16070,7 +16148,7 @@
         <v>666</v>
       </c>
       <c r="E663" t="s">
-        <v>1362</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="664" spans="1:5">
@@ -16087,7 +16165,7 @@
         <v>667</v>
       </c>
       <c r="E664" t="s">
-        <v>1363</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="665" spans="1:5">
@@ -16104,7 +16182,7 @@
         <v>668</v>
       </c>
       <c r="E665" t="s">
-        <v>1364</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="666" spans="1:5">
@@ -16121,7 +16199,7 @@
         <v>669</v>
       </c>
       <c r="E666" t="s">
-        <v>1365</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="667" spans="1:5">
@@ -16138,7 +16216,7 @@
         <v>670</v>
       </c>
       <c r="E667" t="s">
-        <v>1366</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="668" spans="1:5">
@@ -16155,7 +16233,7 @@
         <v>671</v>
       </c>
       <c r="E668" t="s">
-        <v>1367</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="669" spans="1:5">
@@ -16172,7 +16250,7 @@
         <v>672</v>
       </c>
       <c r="E669" t="s">
-        <v>1368</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="670" spans="1:5">
@@ -16189,7 +16267,7 @@
         <v>673</v>
       </c>
       <c r="E670" t="s">
-        <v>1369</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="671" spans="1:5">
@@ -16206,7 +16284,7 @@
         <v>674</v>
       </c>
       <c r="E671" t="s">
-        <v>1370</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="672" spans="1:5">
@@ -16223,7 +16301,7 @@
         <v>675</v>
       </c>
       <c r="E672" t="s">
-        <v>1371</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="673" spans="1:5">
@@ -16240,7 +16318,7 @@
         <v>676</v>
       </c>
       <c r="E673" t="s">
-        <v>1372</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -16257,7 +16335,7 @@
         <v>677</v>
       </c>
       <c r="E674" t="s">
-        <v>1373</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="675" spans="1:5">
@@ -16274,7 +16352,7 @@
         <v>678</v>
       </c>
       <c r="E675" t="s">
-        <v>1374</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="676" spans="1:5">
@@ -16291,7 +16369,7 @@
         <v>679</v>
       </c>
       <c r="E676" t="s">
-        <v>1375</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="677" spans="1:5">
@@ -16308,7 +16386,7 @@
         <v>680</v>
       </c>
       <c r="E677" t="s">
-        <v>1376</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="678" spans="1:5">
@@ -16325,7 +16403,7 @@
         <v>681</v>
       </c>
       <c r="E678" t="s">
-        <v>1377</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="679" spans="1:5">
@@ -16342,7 +16420,7 @@
         <v>682</v>
       </c>
       <c r="E679" t="s">
-        <v>1378</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="680" spans="1:5">
@@ -16359,7 +16437,7 @@
         <v>683</v>
       </c>
       <c r="E680" t="s">
-        <v>1379</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="681" spans="1:5">
@@ -16376,7 +16454,7 @@
         <v>684</v>
       </c>
       <c r="E681" t="s">
-        <v>1380</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="682" spans="1:5">
@@ -16393,7 +16471,7 @@
         <v>685</v>
       </c>
       <c r="E682" t="s">
-        <v>1381</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="683" spans="1:5">
@@ -16410,7 +16488,7 @@
         <v>686</v>
       </c>
       <c r="E683" t="s">
-        <v>1382</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="684" spans="1:5">
@@ -16427,7 +16505,7 @@
         <v>687</v>
       </c>
       <c r="E684" t="s">
-        <v>1383</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="685" spans="1:5">
@@ -16444,7 +16522,7 @@
         <v>688</v>
       </c>
       <c r="E685" t="s">
-        <v>1384</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="686" spans="1:5">
@@ -16461,7 +16539,7 @@
         <v>689</v>
       </c>
       <c r="E686" t="s">
-        <v>1385</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="687" spans="1:5">
@@ -16478,7 +16556,7 @@
         <v>690</v>
       </c>
       <c r="E687" t="s">
-        <v>1386</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="688" spans="1:5">
@@ -16495,7 +16573,7 @@
         <v>691</v>
       </c>
       <c r="E688" t="s">
-        <v>1387</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="689" spans="1:5">
@@ -16512,7 +16590,7 @@
         <v>692</v>
       </c>
       <c r="E689" t="s">
-        <v>1388</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="690" spans="1:5">
@@ -16529,7 +16607,7 @@
         <v>693</v>
       </c>
       <c r="E690" t="s">
-        <v>1389</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="691" spans="1:5">
@@ -16546,7 +16624,7 @@
         <v>694</v>
       </c>
       <c r="E691" t="s">
-        <v>1390</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="692" spans="1:5">
@@ -16563,7 +16641,7 @@
         <v>695</v>
       </c>
       <c r="E692" t="s">
-        <v>1391</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="693" spans="1:5">
@@ -16580,7 +16658,7 @@
         <v>696</v>
       </c>
       <c r="E693" t="s">
-        <v>1392</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="694" spans="1:5">
@@ -16597,7 +16675,7 @@
         <v>697</v>
       </c>
       <c r="E694" t="s">
-        <v>1393</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="695" spans="1:5">
@@ -16614,7 +16692,7 @@
         <v>698</v>
       </c>
       <c r="E695" t="s">
-        <v>1394</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="696" spans="1:5">
@@ -16631,7 +16709,7 @@
         <v>699</v>
       </c>
       <c r="E696" t="s">
-        <v>1395</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="697" spans="1:5">
@@ -16648,7 +16726,7 @@
         <v>700</v>
       </c>
       <c r="E697" t="s">
-        <v>1396</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="698" spans="1:5">
@@ -16665,7 +16743,7 @@
         <v>701</v>
       </c>
       <c r="E698" t="s">
-        <v>1397</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="699" spans="1:5">
@@ -16682,7 +16760,7 @@
         <v>702</v>
       </c>
       <c r="E699" t="s">
-        <v>1398</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="700" spans="1:5">
@@ -16699,7 +16777,7 @@
         <v>703</v>
       </c>
       <c r="E700" t="s">
-        <v>1399</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="701" spans="1:5">
@@ -16716,7 +16794,7 @@
         <v>704</v>
       </c>
       <c r="E701" t="s">
-        <v>1400</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="702" spans="1:5">
@@ -16733,7 +16811,7 @@
         <v>705</v>
       </c>
       <c r="E702" t="s">
-        <v>1401</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="703" spans="1:5">
@@ -16750,7 +16828,7 @@
         <v>706</v>
       </c>
       <c r="E703" t="s">
-        <v>1402</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="704" spans="1:5">
@@ -16767,7 +16845,7 @@
         <v>707</v>
       </c>
       <c r="E704" t="s">
-        <v>1403</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="705" spans="1:5">
@@ -16784,7 +16862,7 @@
         <v>708</v>
       </c>
       <c r="E705" t="s">
-        <v>1404</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="706" spans="1:5">
@@ -16801,7 +16879,7 @@
         <v>709</v>
       </c>
       <c r="E706" t="s">
-        <v>1405</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="707" spans="1:5">
@@ -16818,7 +16896,7 @@
         <v>710</v>
       </c>
       <c r="E707" t="s">
-        <v>1406</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="708" spans="1:5">
@@ -16835,7 +16913,7 @@
         <v>711</v>
       </c>
       <c r="E708" t="s">
-        <v>1407</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="709" spans="1:5">
@@ -16852,7 +16930,7 @@
         <v>712</v>
       </c>
       <c r="E709" t="s">
-        <v>1408</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="710" spans="1:5">
@@ -16869,7 +16947,7 @@
         <v>713</v>
       </c>
       <c r="E710" t="s">
-        <v>1409</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="711" spans="1:5">
@@ -16886,7 +16964,7 @@
         <v>714</v>
       </c>
       <c r="E711" t="s">
-        <v>1410</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="712" spans="1:5">
@@ -16903,7 +16981,7 @@
         <v>715</v>
       </c>
       <c r="E712" t="s">
-        <v>1411</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="713" spans="1:5">
@@ -16920,7 +16998,7 @@
         <v>716</v>
       </c>
       <c r="E713" t="s">
-        <v>1412</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="714" spans="1:5">
@@ -16937,7 +17015,7 @@
         <v>717</v>
       </c>
       <c r="E714" t="s">
-        <v>1413</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="715" spans="1:5">
@@ -16954,7 +17032,7 @@
         <v>718</v>
       </c>
       <c r="E715" t="s">
-        <v>1414</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="716" spans="1:5">
@@ -16971,7 +17049,7 @@
         <v>719</v>
       </c>
       <c r="E716" t="s">
-        <v>1415</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="717" spans="1:5">
@@ -16988,7 +17066,7 @@
         <v>720</v>
       </c>
       <c r="E717" t="s">
-        <v>1416</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="718" spans="1:5">
@@ -17005,7 +17083,7 @@
         <v>721</v>
       </c>
       <c r="E718" t="s">
-        <v>1417</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="719" spans="1:5">
@@ -17022,7 +17100,7 @@
         <v>722</v>
       </c>
       <c r="E719" t="s">
-        <v>1418</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="720" spans="1:5">
@@ -17039,7 +17117,7 @@
         <v>723</v>
       </c>
       <c r="E720" t="s">
-        <v>1419</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="721" spans="1:5">
@@ -17056,7 +17134,7 @@
         <v>724</v>
       </c>
       <c r="E721" t="s">
-        <v>1420</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="722" spans="1:5">
@@ -17073,7 +17151,7 @@
         <v>725</v>
       </c>
       <c r="E722" t="s">
-        <v>1421</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="723" spans="1:5">
@@ -17090,7 +17168,7 @@
         <v>726</v>
       </c>
       <c r="E723" t="s">
-        <v>1422</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="724" spans="1:5">
@@ -17107,7 +17185,7 @@
         <v>727</v>
       </c>
       <c r="E724" t="s">
-        <v>1423</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="725" spans="1:5">
@@ -17124,7 +17202,7 @@
         <v>728</v>
       </c>
       <c r="E725" t="s">
-        <v>1424</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="726" spans="1:5">
@@ -17141,7 +17219,7 @@
         <v>729</v>
       </c>
       <c r="E726" t="s">
-        <v>1425</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="727" spans="1:5">
@@ -17158,7 +17236,7 @@
         <v>730</v>
       </c>
       <c r="E727" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="728" spans="1:5">
@@ -17175,7 +17253,7 @@
         <v>731</v>
       </c>
       <c r="E728" t="s">
-        <v>1427</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="729" spans="1:5">
@@ -17192,7 +17270,7 @@
         <v>732</v>
       </c>
       <c r="E729" t="s">
-        <v>1428</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="730" spans="1:5">
@@ -17209,7 +17287,7 @@
         <v>733</v>
       </c>
       <c r="E730" t="s">
-        <v>1429</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="731" spans="1:5">
@@ -17226,7 +17304,7 @@
         <v>734</v>
       </c>
       <c r="E731" t="s">
-        <v>1430</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="732" spans="1:5">
@@ -17243,7 +17321,7 @@
         <v>735</v>
       </c>
       <c r="E732" t="s">
-        <v>1431</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="733" spans="1:5">
@@ -17260,7 +17338,7 @@
         <v>736</v>
       </c>
       <c r="E733" t="s">
-        <v>1432</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="734" spans="1:5">
@@ -17277,7 +17355,7 @@
         <v>737</v>
       </c>
       <c r="E734" t="s">
-        <v>1433</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="735" spans="1:5">
@@ -17294,7 +17372,7 @@
         <v>738</v>
       </c>
       <c r="E735" t="s">
-        <v>1434</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="736" spans="1:5">
@@ -17311,7 +17389,7 @@
         <v>739</v>
       </c>
       <c r="E736" t="s">
-        <v>1435</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="737" spans="1:5">
@@ -17328,7 +17406,7 @@
         <v>740</v>
       </c>
       <c r="E737" t="s">
-        <v>1436</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="738" spans="1:5">
@@ -17345,7 +17423,7 @@
         <v>741</v>
       </c>
       <c r="E738" t="s">
-        <v>1437</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="739" spans="1:5">
@@ -17362,7 +17440,7 @@
         <v>742</v>
       </c>
       <c r="E739" t="s">
-        <v>1438</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="740" spans="1:5">
@@ -17379,7 +17457,7 @@
         <v>743</v>
       </c>
       <c r="E740" t="s">
-        <v>1439</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="741" spans="1:5">
@@ -17396,7 +17474,7 @@
         <v>744</v>
       </c>
       <c r="E741" t="s">
-        <v>1440</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="742" spans="1:5">
@@ -17413,7 +17491,7 @@
         <v>745</v>
       </c>
       <c r="E742" t="s">
-        <v>1441</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="743" spans="1:5">
@@ -17430,7 +17508,7 @@
         <v>746</v>
       </c>
       <c r="E743" t="s">
-        <v>1442</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="744" spans="1:5">
@@ -17447,7 +17525,7 @@
         <v>747</v>
       </c>
       <c r="E744" t="s">
-        <v>1443</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="745" spans="1:5">
@@ -17464,7 +17542,7 @@
         <v>748</v>
       </c>
       <c r="E745" t="s">
-        <v>1444</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="746" spans="1:5">
@@ -17481,7 +17559,7 @@
         <v>749</v>
       </c>
       <c r="E746" t="s">
-        <v>1445</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="747" spans="1:5">
@@ -17498,7 +17576,7 @@
         <v>750</v>
       </c>
       <c r="E747" t="s">
-        <v>1446</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="748" spans="1:5">
@@ -17515,7 +17593,7 @@
         <v>751</v>
       </c>
       <c r="E748" t="s">
-        <v>1447</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="749" spans="1:5">
@@ -17532,7 +17610,7 @@
         <v>752</v>
       </c>
       <c r="E749" t="s">
-        <v>1448</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="750" spans="1:5">
@@ -17549,7 +17627,7 @@
         <v>753</v>
       </c>
       <c r="E750" t="s">
-        <v>1449</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="751" spans="1:5">
@@ -17566,7 +17644,7 @@
         <v>754</v>
       </c>
       <c r="E751" t="s">
-        <v>1450</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="752" spans="1:5">
@@ -17583,7 +17661,7 @@
         <v>755</v>
       </c>
       <c r="E752" t="s">
-        <v>1451</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="753" spans="1:5">
@@ -17600,7 +17678,7 @@
         <v>756</v>
       </c>
       <c r="E753" t="s">
-        <v>1452</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="754" spans="1:5">
@@ -17617,7 +17695,7 @@
         <v>757</v>
       </c>
       <c r="E754" t="s">
-        <v>1453</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="755" spans="1:5">
@@ -17634,7 +17712,7 @@
         <v>758</v>
       </c>
       <c r="E755" t="s">
-        <v>1454</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="756" spans="1:5">
@@ -17651,7 +17729,7 @@
         <v>759</v>
       </c>
       <c r="E756" t="s">
-        <v>1455</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="757" spans="1:5">
@@ -17668,7 +17746,7 @@
         <v>760</v>
       </c>
       <c r="E757" t="s">
-        <v>1456</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="758" spans="1:5">
@@ -17685,7 +17763,7 @@
         <v>761</v>
       </c>
       <c r="E758" t="s">
-        <v>1457</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="759" spans="1:5">
@@ -17702,7 +17780,7 @@
         <v>762</v>
       </c>
       <c r="E759" t="s">
-        <v>1458</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="760" spans="1:5">
@@ -17719,7 +17797,7 @@
         <v>763</v>
       </c>
       <c r="E760" t="s">
-        <v>1459</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="761" spans="1:5">
@@ -17736,7 +17814,7 @@
         <v>764</v>
       </c>
       <c r="E761" t="s">
-        <v>1460</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="762" spans="1:5">
@@ -17753,7 +17831,7 @@
         <v>765</v>
       </c>
       <c r="E762" t="s">
-        <v>1461</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="763" spans="1:5">
@@ -17770,7 +17848,7 @@
         <v>766</v>
       </c>
       <c r="E763" t="s">
-        <v>1462</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="764" spans="1:5">
@@ -17787,7 +17865,7 @@
         <v>767</v>
       </c>
       <c r="E764" t="s">
-        <v>1463</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="765" spans="1:5">
@@ -17804,7 +17882,7 @@
         <v>768</v>
       </c>
       <c r="E765" t="s">
-        <v>1464</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="766" spans="1:5">
@@ -17821,7 +17899,7 @@
         <v>769</v>
       </c>
       <c r="E766" t="s">
-        <v>1465</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="767" spans="1:5">
@@ -17838,7 +17916,7 @@
         <v>770</v>
       </c>
       <c r="E767" t="s">
-        <v>1466</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="768" spans="1:5">
@@ -17855,7 +17933,7 @@
         <v>771</v>
       </c>
       <c r="E768" t="s">
-        <v>1467</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="769" spans="1:5">
@@ -17872,7 +17950,7 @@
         <v>772</v>
       </c>
       <c r="E769" t="s">
-        <v>1468</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="770" spans="1:5">
@@ -17889,7 +17967,7 @@
         <v>773</v>
       </c>
       <c r="E770" t="s">
-        <v>1469</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="771" spans="1:5">
@@ -17906,7 +17984,7 @@
         <v>774</v>
       </c>
       <c r="E771" t="s">
-        <v>1470</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="772" spans="1:5">
@@ -17923,7 +18001,7 @@
         <v>775</v>
       </c>
       <c r="E772" t="s">
-        <v>1471</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="773" spans="1:5">
@@ -17940,7 +18018,7 @@
         <v>776</v>
       </c>
       <c r="E773" t="s">
-        <v>1472</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="774" spans="1:5">
@@ -17957,7 +18035,7 @@
         <v>777</v>
       </c>
       <c r="E774" t="s">
-        <v>1473</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="775" spans="1:5">
@@ -17974,7 +18052,228 @@
         <v>778</v>
       </c>
       <c r="E775" t="s">
-        <v>1474</v>
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5">
+      <c r="A776" s="1">
+        <v>774</v>
+      </c>
+      <c r="B776" t="s">
+        <v>4</v>
+      </c>
+      <c r="C776" t="s">
+        <v>4</v>
+      </c>
+      <c r="D776" t="s">
+        <v>779</v>
+      </c>
+      <c r="E776" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5">
+      <c r="A777" s="1">
+        <v>775</v>
+      </c>
+      <c r="B777" t="s">
+        <v>4</v>
+      </c>
+      <c r="C777" t="s">
+        <v>4</v>
+      </c>
+      <c r="D777" t="s">
+        <v>780</v>
+      </c>
+      <c r="E777" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5">
+      <c r="A778" s="1">
+        <v>776</v>
+      </c>
+      <c r="B778" t="s">
+        <v>4</v>
+      </c>
+      <c r="C778" t="s">
+        <v>4</v>
+      </c>
+      <c r="D778" t="s">
+        <v>781</v>
+      </c>
+      <c r="E778" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5">
+      <c r="A779" s="1">
+        <v>777</v>
+      </c>
+      <c r="B779" t="s">
+        <v>4</v>
+      </c>
+      <c r="C779" t="s">
+        <v>4</v>
+      </c>
+      <c r="D779" t="s">
+        <v>782</v>
+      </c>
+      <c r="E779" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5">
+      <c r="A780" s="1">
+        <v>778</v>
+      </c>
+      <c r="B780" t="s">
+        <v>4</v>
+      </c>
+      <c r="C780" t="s">
+        <v>4</v>
+      </c>
+      <c r="D780" t="s">
+        <v>783</v>
+      </c>
+      <c r="E780" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5">
+      <c r="A781" s="1">
+        <v>779</v>
+      </c>
+      <c r="B781" t="s">
+        <v>4</v>
+      </c>
+      <c r="C781" t="s">
+        <v>4</v>
+      </c>
+      <c r="D781" t="s">
+        <v>784</v>
+      </c>
+      <c r="E781" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5">
+      <c r="A782" s="1">
+        <v>780</v>
+      </c>
+      <c r="B782" t="s">
+        <v>4</v>
+      </c>
+      <c r="C782" t="s">
+        <v>4</v>
+      </c>
+      <c r="D782" t="s">
+        <v>785</v>
+      </c>
+      <c r="E782" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5">
+      <c r="A783" s="1">
+        <v>781</v>
+      </c>
+      <c r="B783" t="s">
+        <v>4</v>
+      </c>
+      <c r="C783" t="s">
+        <v>4</v>
+      </c>
+      <c r="D783" t="s">
+        <v>786</v>
+      </c>
+      <c r="E783" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5">
+      <c r="A784" s="1">
+        <v>782</v>
+      </c>
+      <c r="B784" t="s">
+        <v>4</v>
+      </c>
+      <c r="C784" t="s">
+        <v>4</v>
+      </c>
+      <c r="D784" t="s">
+        <v>787</v>
+      </c>
+      <c r="E784" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5">
+      <c r="A785" s="1">
+        <v>783</v>
+      </c>
+      <c r="B785" t="s">
+        <v>4</v>
+      </c>
+      <c r="C785" t="s">
+        <v>4</v>
+      </c>
+      <c r="D785" t="s">
+        <v>788</v>
+      </c>
+      <c r="E785" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5">
+      <c r="A786" s="1">
+        <v>784</v>
+      </c>
+      <c r="B786" t="s">
+        <v>4</v>
+      </c>
+      <c r="C786" t="s">
+        <v>4</v>
+      </c>
+      <c r="D786" t="s">
+        <v>789</v>
+      </c>
+      <c r="E786" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5">
+      <c r="A787" s="1">
+        <v>785</v>
+      </c>
+      <c r="B787" t="s">
+        <v>4</v>
+      </c>
+      <c r="C787" t="s">
+        <v>4</v>
+      </c>
+      <c r="D787" t="s">
+        <v>790</v>
+      </c>
+      <c r="E787" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5">
+      <c r="A788" s="1">
+        <v>786</v>
+      </c>
+      <c r="B788" t="s">
+        <v>4</v>
+      </c>
+      <c r="C788" t="s">
+        <v>4</v>
+      </c>
+      <c r="D788" t="s">
+        <v>791</v>
+      </c>
+      <c r="E788" t="s">
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
